--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2390791.997542096</v>
+        <v>-2392396.415468427</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8983154.091635661</v>
+        <v>8983154.091635671</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15405812.40675701</v>
+        <v>15405812.406757</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.9455259660926</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>237.4845760736198</v>
       </c>
       <c r="D11" t="n">
-        <v>3.312450483843037</v>
+        <v>226.8947259232952</v>
       </c>
       <c r="E11" t="n">
-        <v>254.1420543748739</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>273.9743036897855</v>
       </c>
       <c r="G11" t="n">
-        <v>284.7244505358282</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>17.65528330212892</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>83.09443458014327</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3341395078951</v>
+        <v>123.3341395078952</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>199.9639427727471</v>
       </c>
       <c r="W11" t="n">
-        <v>221.4526530200251</v>
+        <v>221.4526530200253</v>
       </c>
       <c r="X11" t="n">
-        <v>241.9427849810811</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.74486795247942</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>44.92018329092782</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>29.85676475801303</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>17.28089669599596</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.850750924965</v>
+        <v>8.062435227577252</v>
       </c>
       <c r="H12" t="n">
-        <v>21.01084125532015</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.475382974551636</v>
       </c>
       <c r="S12" t="n">
-        <v>16.16737725307204</v>
+        <v>16.16737725307218</v>
       </c>
       <c r="T12" t="n">
-        <v>194.1478331994369</v>
+        <v>66.35951750204912</v>
       </c>
       <c r="U12" t="n">
-        <v>98.05485807843917</v>
+        <v>98.05485807843931</v>
       </c>
       <c r="V12" t="n">
-        <v>105.0122714520374</v>
+        <v>105.0122714520375</v>
       </c>
       <c r="W12" t="n">
-        <v>123.9066674635317</v>
+        <v>123.9066674635318</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>91.52012778685803</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>77.89438007991659</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.40599250529647</v>
+        <v>52.04366448454952</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540123992</v>
+        <v>39.45850540124006</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>20.82715732082458</v>
       </c>
       <c r="E13" t="n">
-        <v>18.64564694918126</v>
+        <v>18.6456469491814</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554333</v>
+        <v>17.63273232554347</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219366</v>
+        <v>38.95117859219381</v>
       </c>
       <c r="H13" t="n">
-        <v>23.31201683403455</v>
+        <v>23.31201683403469</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015206</v>
+        <v>74.4183107301522</v>
       </c>
       <c r="T13" t="n">
-        <v>94.81001934569109</v>
+        <v>116.9385912381684</v>
       </c>
       <c r="U13" t="n">
-        <v>158.4624508371642</v>
+        <v>158.4624508371644</v>
       </c>
       <c r="V13" t="n">
-        <v>124.3493276264401</v>
+        <v>124.3493276264402</v>
       </c>
       <c r="W13" t="n">
-        <v>158.7346826392031</v>
+        <v>158.7346826392032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164924</v>
+        <v>97.92133969164938</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470687</v>
+        <v>90.79633765470702</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>237.4845760736198</v>
       </c>
       <c r="D14" t="n">
-        <v>226.894725923295</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443235</v>
+        <v>279.0877300443237</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358282</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>145.4366917919237</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212878</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014313</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>221.4526530200253</v>
       </c>
       <c r="X14" t="n">
-        <v>233.9478115252553</v>
+        <v>241.9427849810813</v>
       </c>
       <c r="Y14" t="n">
-        <v>258.4496229586657</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.74486795247942</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>19.65674986725084</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>17.28089669599596</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>21.59789350834615</v>
+        <v>8.062435227577323</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>7.475382974551636</v>
       </c>
       <c r="S15" t="n">
-        <v>143.95569295046</v>
+        <v>16.16737725307225</v>
       </c>
       <c r="T15" t="n">
-        <v>66.35951750204897</v>
+        <v>66.35951750204919</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8431737758271</v>
+        <v>98.05485807843938</v>
       </c>
       <c r="V15" t="n">
-        <v>105.0122714520374</v>
+        <v>105.0122714520376</v>
       </c>
       <c r="W15" t="n">
-        <v>123.9066674635317</v>
+        <v>123.9066674635319</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>77.98466950608977</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.89438007991644</v>
+        <v>91.42983836068429</v>
       </c>
     </row>
     <row r="16">
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454938</v>
+        <v>52.04366448454959</v>
       </c>
       <c r="C16" t="n">
-        <v>39.45850540123992</v>
+        <v>39.45850540124013</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082444</v>
+        <v>20.82715732082465</v>
       </c>
       <c r="E16" t="n">
-        <v>18.64564694918126</v>
+        <v>18.64564694918147</v>
       </c>
       <c r="F16" t="n">
-        <v>32.99506034629036</v>
+        <v>17.63273232554354</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7394942895816</v>
+        <v>38.95117859219388</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403455</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4.879185747056212</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015206</v>
+        <v>84.90145300384007</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569109</v>
+        <v>94.8100193456913</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4624508371642</v>
+        <v>158.4624508371644</v>
       </c>
       <c r="V16" t="n">
-        <v>124.3493276264401</v>
+        <v>124.3493276264403</v>
       </c>
       <c r="W16" t="n">
-        <v>158.7346826392031</v>
+        <v>158.7346826392033</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164924</v>
+        <v>97.92133969164945</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.79633765470687</v>
+        <v>90.79633765470709</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>139.8053726064065</v>
       </c>
       <c r="C17" t="n">
-        <v>122.3444227139335</v>
+        <v>122.3444227139337</v>
       </c>
       <c r="D17" t="n">
         <v>111.7545725636089</v>
@@ -1853,13 +1853,13 @@
         <v>139.0019010151877</v>
       </c>
       <c r="F17" t="n">
-        <v>163.9475766846374</v>
+        <v>163.9475766846373</v>
       </c>
       <c r="G17" t="n">
         <v>169.584297176142</v>
       </c>
       <c r="H17" t="n">
-        <v>67.97353966774043</v>
+        <v>67.97353966774037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.193986148208937</v>
+        <v>8.19398614820888</v>
       </c>
       <c r="V17" t="n">
-        <v>84.82378941306087</v>
+        <v>84.82378941306081</v>
       </c>
       <c r="W17" t="n">
-        <v>106.312499660339</v>
+        <v>106.3124996603389</v>
       </c>
       <c r="X17" t="n">
-        <v>126.802631621395</v>
+        <v>126.8026316213949</v>
       </c>
       <c r="Y17" t="n">
         <v>143.3094695989795</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1935,7 +1935,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.475382974551636</v>
       </c>
       <c r="S18" t="n">
-        <v>143.95569295046</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>33.83967113572687</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>8.766514103845566</v>
+        <v>175.5219538626991</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U19" t="n">
-        <v>43.3222974774781</v>
+        <v>94.82956852485827</v>
       </c>
       <c r="V19" t="n">
-        <v>30.96360079079519</v>
+        <v>9.209174266753905</v>
       </c>
       <c r="W19" t="n">
-        <v>43.59452927951696</v>
+        <v>43.59452927951691</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>139.0019010151877</v>
       </c>
       <c r="F20" t="n">
-        <v>163.9475766846374</v>
+        <v>163.9475766846373</v>
       </c>
       <c r="G20" t="n">
         <v>169.584297176142</v>
       </c>
       <c r="H20" t="n">
-        <v>67.9735396677404</v>
+        <v>67.97353966774034</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.193986148208937</v>
+        <v>8.193986148208893</v>
       </c>
       <c r="V20" t="n">
-        <v>84.82378941306087</v>
+        <v>84.8237894130617</v>
       </c>
       <c r="W20" t="n">
-        <v>106.312499660339</v>
+        <v>106.3124996603389</v>
       </c>
       <c r="X20" t="n">
-        <v>126.802631621395</v>
+        <v>126.8026316213949</v>
       </c>
       <c r="Y20" t="n">
         <v>143.3094695989795</v>
@@ -2160,19 +2160,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.475382974551621</v>
+        <v>7.475382974551636</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>118.2576662374186</v>
+        <v>141.1857419657781</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>8.766514103845566</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.879185747056212</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S22" t="n">
         <v>202.20662642754</v>
@@ -2293,13 +2293,13 @@
         <v>222.598335043079</v>
       </c>
       <c r="U22" t="n">
-        <v>265.7300589781167</v>
+        <v>286.2507665345522</v>
       </c>
       <c r="V22" t="n">
-        <v>9.209174266753962</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>64.41938524899696</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2327,13 +2327,13 @@
         <v>139.0019010151877</v>
       </c>
       <c r="F23" t="n">
-        <v>163.9475766846374</v>
+        <v>163.9475766846373</v>
       </c>
       <c r="G23" t="n">
         <v>169.584297176142</v>
       </c>
       <c r="H23" t="n">
-        <v>67.9735396677404</v>
+        <v>67.97353966774034</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.193986148208937</v>
+        <v>8.193986148208893</v>
       </c>
       <c r="V23" t="n">
-        <v>84.82378941306087</v>
+        <v>84.82378941306081</v>
       </c>
       <c r="W23" t="n">
-        <v>106.312499660339</v>
+        <v>106.3124996603389</v>
       </c>
       <c r="X23" t="n">
-        <v>126.802631621395</v>
+        <v>126.8026316213949</v>
       </c>
       <c r="Y23" t="n">
         <v>143.3094695989795</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.9333237730916</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,13 +2406,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.8184650408086</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8431737758271</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>175.5219538626993</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.879185747056212</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S25" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U25" t="n">
-        <v>43.3222974774781</v>
+        <v>286.2507665345522</v>
       </c>
       <c r="V25" t="n">
-        <v>107.4283831034819</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>43.59452927951696</v>
+        <v>266.626011676537</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.5936883037945</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C26" t="n">
-        <v>250.1327384113214</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D26" t="n">
-        <v>239.5428882609968</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E26" t="n">
-        <v>266.7902167125757</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F26" t="n">
-        <v>291.7358923820253</v>
+        <v>291.7358923820251</v>
       </c>
       <c r="G26" t="n">
-        <v>297.37261287353</v>
+        <v>297.3726128735298</v>
       </c>
       <c r="H26" t="n">
-        <v>195.7618553651283</v>
+        <v>195.7618553651281</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983057</v>
+        <v>30.30344563983036</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784492</v>
+        <v>95.74259691784471</v>
       </c>
       <c r="U26" t="n">
-        <v>135.9823018455969</v>
+        <v>135.9823018455967</v>
       </c>
       <c r="V26" t="n">
-        <v>212.6121051104488</v>
+        <v>212.6121051104486</v>
       </c>
       <c r="W26" t="n">
-        <v>234.1008153577269</v>
+        <v>234.1008153577267</v>
       </c>
       <c r="X26" t="n">
-        <v>254.5909473187829</v>
+        <v>254.5909473187827</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.0977852963675</v>
+        <v>271.0977852963672</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225117</v>
+        <v>64.69182682225096</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894171</v>
+        <v>52.1066677389415</v>
       </c>
       <c r="D28" t="n">
-        <v>33.47531965852623</v>
+        <v>33.47531965852602</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688305</v>
+        <v>31.29380928688283</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324512</v>
+        <v>30.28089466324491</v>
       </c>
       <c r="G28" t="n">
-        <v>51.59934092989545</v>
+        <v>51.59934092989524</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173634</v>
+        <v>35.96017917173613</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338431</v>
+        <v>2.674752405338218</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.881918465969477</v>
+        <v>5.881918465969264</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785385</v>
+        <v>87.06647306785362</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4581816833929</v>
+        <v>107.4581816833927</v>
       </c>
       <c r="U28" t="n">
-        <v>171.110613174866</v>
+        <v>171.1106131748658</v>
       </c>
       <c r="V28" t="n">
-        <v>136.9974899641419</v>
+        <v>136.9974899641417</v>
       </c>
       <c r="W28" t="n">
-        <v>171.3828449769049</v>
+        <v>171.3828449769047</v>
       </c>
       <c r="X28" t="n">
-        <v>110.569502029351</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.4444999924087</v>
+        <v>103.4444999924085</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.5936883037945</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C29" t="n">
-        <v>250.1327384113214</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D29" t="n">
-        <v>239.5428882609968</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E29" t="n">
-        <v>266.7902167125757</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F29" t="n">
-        <v>291.7358923820253</v>
+        <v>291.735892382025</v>
       </c>
       <c r="G29" t="n">
-        <v>297.37261287353</v>
+        <v>297.3726128735297</v>
       </c>
       <c r="H29" t="n">
-        <v>195.7618553651283</v>
+        <v>195.761855365128</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983056</v>
+        <v>30.3034456398303</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784491</v>
+        <v>95.74259691784465</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455969</v>
+        <v>135.9823018455966</v>
       </c>
       <c r="V29" t="n">
-        <v>212.6121051104488</v>
+        <v>212.6121051104485</v>
       </c>
       <c r="W29" t="n">
-        <v>234.1008153577269</v>
+        <v>234.1008153577266</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187829</v>
+        <v>254.5909473187826</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.0977852963674</v>
+        <v>271.0977852963672</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.69182682225116</v>
+        <v>64.6918268222509</v>
       </c>
       <c r="C31" t="n">
-        <v>52.1066677389417</v>
+        <v>52.10666773894144</v>
       </c>
       <c r="D31" t="n">
-        <v>33.47531965852622</v>
+        <v>33.47531965852596</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688303</v>
+        <v>31.29380928688278</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324511</v>
+        <v>30.28089466324485</v>
       </c>
       <c r="G31" t="n">
-        <v>51.59934092989544</v>
+        <v>51.59934092989518</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173633</v>
+        <v>35.96017917173607</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338417</v>
+        <v>2.674752405338161</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969463</v>
+        <v>5.881918465969207</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785382</v>
+        <v>87.06647306785356</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4581816833929</v>
+        <v>107.4581816833926</v>
       </c>
       <c r="U31" t="n">
-        <v>171.110613174866</v>
+        <v>171.1106131748657</v>
       </c>
       <c r="V31" t="n">
-        <v>136.9974899641419</v>
+        <v>136.9974899641416</v>
       </c>
       <c r="W31" t="n">
-        <v>171.3828449769049</v>
+        <v>171.3828449769046</v>
       </c>
       <c r="X31" t="n">
-        <v>110.569502029351</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.4444999924087</v>
+        <v>103.4444999924084</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.5936883037945</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113214</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609968</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125757</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F32" t="n">
-        <v>291.7358923820253</v>
+        <v>291.735892382025</v>
       </c>
       <c r="G32" t="n">
-        <v>297.37261287353</v>
+        <v>297.3726128735297</v>
       </c>
       <c r="H32" t="n">
-        <v>195.7618553651283</v>
+        <v>195.761855365128</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983056</v>
+        <v>30.30344563983031</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784491</v>
+        <v>95.74259691784466</v>
       </c>
       <c r="U32" t="n">
-        <v>135.9823018455969</v>
+        <v>135.9823018455966</v>
       </c>
       <c r="V32" t="n">
-        <v>212.6121051104488</v>
+        <v>212.6121051104485</v>
       </c>
       <c r="W32" t="n">
-        <v>234.1008153577269</v>
+        <v>234.1008153577266</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187829</v>
+        <v>254.5909473187826</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.0977852963674</v>
+        <v>271.0977852963672</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225116</v>
+        <v>64.69182682225092</v>
       </c>
       <c r="C34" t="n">
-        <v>52.1066677389417</v>
+        <v>52.10666773894145</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852622</v>
+        <v>33.47531965852598</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688303</v>
+        <v>31.29380928688279</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324511</v>
+        <v>30.28089466324487</v>
       </c>
       <c r="G34" t="n">
-        <v>51.59934092989544</v>
+        <v>51.5993409298952</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173633</v>
+        <v>35.96017917173609</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338417</v>
+        <v>2.674752405338175</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969463</v>
+        <v>5.881918465969221</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785382</v>
+        <v>87.06647306785359</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4581816833929</v>
+        <v>107.4581816833926</v>
       </c>
       <c r="U34" t="n">
-        <v>171.110613174866</v>
+        <v>171.1106131748657</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9974899641419</v>
+        <v>136.9974899641416</v>
       </c>
       <c r="W34" t="n">
-        <v>171.3828449769049</v>
+        <v>171.3828449769046</v>
       </c>
       <c r="X34" t="n">
-        <v>110.569502029351</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.4444999924087</v>
+        <v>103.4444999924084</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.7763536111309</v>
+        <v>162.7763536111306</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186579</v>
+        <v>145.3154037186575</v>
       </c>
       <c r="D35" t="n">
-        <v>134.7255535683333</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E35" t="n">
-        <v>161.9728820199121</v>
+        <v>161.9728820199118</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893618</v>
+        <v>186.9185576893614</v>
       </c>
       <c r="G35" t="n">
-        <v>192.5552781808665</v>
+        <v>192.5552781808661</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246479</v>
+        <v>90.94452067246442</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293334</v>
+        <v>31.16496715293297</v>
       </c>
       <c r="V35" t="n">
-        <v>107.7947704177853</v>
+        <v>107.7947704177849</v>
       </c>
       <c r="W35" t="n">
-        <v>129.2834806650634</v>
+        <v>129.283480665063</v>
       </c>
       <c r="X35" t="n">
-        <v>149.7736126261194</v>
+        <v>149.773612626119</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.2804506037039</v>
+        <v>166.2804506037036</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3357,7 +3357,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>94.05303260133608</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477065</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>193.5930570349911</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3421,31 +3421,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>129.4040559282545</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.879185747056212</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.5548984665305</v>
+        <v>2.640846990728987</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2507665345522</v>
+        <v>66.29327848220211</v>
       </c>
       <c r="V37" t="n">
-        <v>32.18015527147836</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>66.56551028424099</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336687506</v>
+        <v>5.752167336687137</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111308</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186577</v>
+        <v>145.3154037186574</v>
       </c>
       <c r="D38" t="n">
-        <v>134.7255535683331</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E38" t="n">
-        <v>161.972882019912</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893616</v>
+        <v>186.9185576893613</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808663</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246462</v>
+        <v>90.94452067246434</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293316</v>
+        <v>31.16496715293288</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7947704177851</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W38" t="n">
-        <v>129.2834806650632</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X38" t="n">
-        <v>149.7736126261192</v>
+        <v>149.7736126261189</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037038</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>38.00095315743245</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,22 +3630,22 @@
         <v>7.475382974551636</v>
       </c>
       <c r="S39" t="n">
-        <v>143.95569295046</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8431737758271</v>
+        <v>5.88568572347698</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>193.5930570349911</v>
       </c>
       <c r="W39" t="n">
-        <v>31.73749510856979</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>129.702658419901</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.7394942895816</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.879185747056212</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>2.640846990729186</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U40" t="n">
-        <v>66.29327848220231</v>
+        <v>151.7384877434523</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>32.1801552714779</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>66.5655102842409</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336687336</v>
+        <v>5.752167336687052</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.57257472158814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111308</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186577</v>
+        <v>145.3154037186574</v>
       </c>
       <c r="D41" t="n">
-        <v>134.7255535683331</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E41" t="n">
-        <v>161.972882019912</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F41" t="n">
-        <v>186.9185576893616</v>
+        <v>186.9185576893613</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5552781808663</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246462</v>
+        <v>90.94452067246434</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293316</v>
+        <v>31.16496715293288</v>
       </c>
       <c r="V41" t="n">
-        <v>107.7947704177851</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W41" t="n">
-        <v>129.2834806650632</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X41" t="n">
-        <v>149.7736126261192</v>
+        <v>149.7736126261189</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037038</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="42">
@@ -3825,10 +3825,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>67.8607291215164</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>7.475382974551636</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8431737758271</v>
+        <v>5.88568572347698</v>
       </c>
       <c r="V42" t="n">
-        <v>126.5647341080774</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>31.73749510856979</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3901,25 +3901,25 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H43" t="n">
         <v>151.1003325314225</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.879185747056212</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>222.598335043079</v>
+        <v>101.7185007553024</v>
       </c>
       <c r="U43" t="n">
-        <v>66.29327848220231</v>
+        <v>66.29327848220203</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147818</v>
+        <v>32.1801552714779</v>
       </c>
       <c r="W43" t="n">
-        <v>190.5619722851571</v>
+        <v>66.5655102842409</v>
       </c>
       <c r="X43" t="n">
-        <v>5.752167336687336</v>
+        <v>5.752167336687052</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111308</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186577</v>
+        <v>145.3154037186574</v>
       </c>
       <c r="D44" t="n">
-        <v>134.7255535683331</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E44" t="n">
-        <v>161.972882019912</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893616</v>
+        <v>186.9185576893613</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808663</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246462</v>
+        <v>90.94452067246434</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293316</v>
+        <v>31.16496715293289</v>
       </c>
       <c r="V44" t="n">
-        <v>107.7947704177851</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W44" t="n">
-        <v>129.2834806650632</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X44" t="n">
-        <v>149.7736126261192</v>
+        <v>149.7736126261189</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037038</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="45">
@@ -4056,10 +4056,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>118.0899233092233</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>38.00095315743245</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>7.475382974551636</v>
       </c>
       <c r="S45" t="n">
-        <v>143.95569295046</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8431737758271</v>
+        <v>5.88568572347698</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>193.5930570349904</v>
       </c>
       <c r="W45" t="n">
-        <v>31.73749510856979</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>113.1171450406183</v>
       </c>
       <c r="H46" t="n">
-        <v>96.74575252916931</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.640846990729186</v>
+        <v>2.640846990728901</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2507665345522</v>
+        <v>66.29327848220203</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>32.1801552714779</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>66.5655102842409</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336687336</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>576.182701983145</v>
+        <v>774.3389143994631</v>
       </c>
       <c r="C11" t="n">
-        <v>576.182701983145</v>
+        <v>534.4555042240895</v>
       </c>
       <c r="D11" t="n">
-        <v>572.8367924035053</v>
+        <v>305.2689123823774</v>
       </c>
       <c r="E11" t="n">
-        <v>316.1276465702994</v>
+        <v>305.2689123823774</v>
       </c>
       <c r="F11" t="n">
-        <v>316.1276465702994</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="G11" t="n">
-        <v>28.52719148360419</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="H11" t="n">
-        <v>28.52719148360419</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="I11" t="n">
-        <v>28.52719148360419</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006764</v>
+        <v>83.71911784006807</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634136</v>
+        <v>217.1760266634142</v>
       </c>
       <c r="L11" t="n">
-        <v>419.6428849838405</v>
+        <v>419.6428849838412</v>
       </c>
       <c r="M11" t="n">
-        <v>676.5957134965329</v>
+        <v>676.5957134965336</v>
       </c>
       <c r="N11" t="n">
-        <v>942.3201157893053</v>
+        <v>942.320115789306</v>
       </c>
       <c r="O11" t="n">
-        <v>1179.900872569997</v>
+        <v>1179.900872569998</v>
       </c>
       <c r="P11" t="n">
-        <v>1348.16955099829</v>
+        <v>1348.169550998291</v>
       </c>
       <c r="Q11" t="n">
         <v>1426.35957418021</v>
@@ -5066,25 +5066,25 @@
         <v>1426.35957418021</v>
       </c>
       <c r="S11" t="n">
-        <v>1426.35957418021</v>
+        <v>1408.52595468311</v>
       </c>
       <c r="T11" t="n">
-        <v>1426.35957418021</v>
+        <v>1324.592182379935</v>
       </c>
       <c r="U11" t="n">
-        <v>1301.779635283346</v>
+        <v>1200.012243483071</v>
       </c>
       <c r="V11" t="n">
-        <v>1301.779635283346</v>
+        <v>998.028462904539</v>
       </c>
       <c r="W11" t="n">
-        <v>1078.09008677827</v>
+        <v>774.3389143994631</v>
       </c>
       <c r="X11" t="n">
-        <v>833.7034352822284</v>
+        <v>774.3389143994631</v>
       </c>
       <c r="Y11" t="n">
-        <v>833.7034352822284</v>
+        <v>774.3389143994631</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>428.8953758167969</v>
+        <v>665.8305173718028</v>
       </c>
       <c r="C12" t="n">
-        <v>383.5214533007082</v>
+        <v>491.3774880906757</v>
       </c>
       <c r="D12" t="n">
-        <v>234.5870436394569</v>
+        <v>342.4430784294245</v>
       </c>
       <c r="E12" t="n">
-        <v>204.4286953990397</v>
+        <v>183.205623423969</v>
       </c>
       <c r="F12" t="n">
-        <v>186.973244190963</v>
+        <v>36.67106545085396</v>
       </c>
       <c r="G12" t="n">
-        <v>49.75026345867505</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="H12" t="n">
-        <v>28.52719148360419</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="I12" t="n">
-        <v>28.52719148360419</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="J12" t="n">
-        <v>42.58127776197346</v>
+        <v>42.58127776197347</v>
       </c>
       <c r="K12" t="n">
-        <v>344.5030460572793</v>
+        <v>144.7567744385587</v>
       </c>
       <c r="L12" t="n">
-        <v>528.2131517335611</v>
+        <v>328.4668801148404</v>
       </c>
       <c r="M12" t="n">
-        <v>761.9510481841594</v>
+        <v>562.2047765654386</v>
       </c>
       <c r="N12" t="n">
-        <v>1016.283936160735</v>
+        <v>915.2287711750406</v>
       </c>
       <c r="O12" t="n">
-        <v>1226.729045497789</v>
+        <v>1226.72904549779</v>
       </c>
       <c r="P12" t="n">
-        <v>1376.296732666067</v>
+        <v>1376.296732666068</v>
       </c>
       <c r="Q12" t="n">
         <v>1426.35957418021</v>
       </c>
       <c r="R12" t="n">
-        <v>1426.35957418021</v>
+        <v>1418.808682286724</v>
       </c>
       <c r="S12" t="n">
-        <v>1410.028890086197</v>
+        <v>1402.477998192712</v>
       </c>
       <c r="T12" t="n">
-        <v>1213.919967662524</v>
+        <v>1335.448182534076</v>
       </c>
       <c r="U12" t="n">
-        <v>1114.874656472181</v>
+        <v>1236.402871343733</v>
       </c>
       <c r="V12" t="n">
-        <v>1008.801655005477</v>
+        <v>1130.329869877029</v>
       </c>
       <c r="W12" t="n">
-        <v>883.6434050423134</v>
+        <v>1005.171619913865</v>
       </c>
       <c r="X12" t="n">
-        <v>675.7919048367805</v>
+        <v>912.7270463917865</v>
       </c>
       <c r="Y12" t="n">
-        <v>468.0316060718266</v>
+        <v>834.0458543918708</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>318.0378512011851</v>
+        <v>188.9587444361476</v>
       </c>
       <c r="C13" t="n">
-        <v>278.1807750383165</v>
+        <v>149.1016682732789</v>
       </c>
       <c r="D13" t="n">
-        <v>128.0641356259808</v>
+        <v>128.0641356259814</v>
       </c>
       <c r="E13" t="n">
-        <v>109.230148808626</v>
+        <v>109.2301488086264</v>
       </c>
       <c r="F13" t="n">
-        <v>91.41930807575392</v>
+        <v>91.4193080757542</v>
       </c>
       <c r="G13" t="n">
-        <v>52.07468323515425</v>
+        <v>52.0746832351544</v>
       </c>
       <c r="H13" t="n">
-        <v>28.52719148360419</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="I13" t="n">
-        <v>28.52719148360419</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="J13" t="n">
-        <v>28.52719148360419</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="K13" t="n">
         <v>150.4262071982333</v>
       </c>
       <c r="L13" t="n">
-        <v>361.9414135537028</v>
+        <v>361.9414135537029</v>
       </c>
       <c r="M13" t="n">
         <v>595.3436651297678</v>
@@ -5221,28 +5221,28 @@
         <v>1193.692862342905</v>
       </c>
       <c r="R13" t="n">
-        <v>1193.692862342905</v>
+        <v>1071.448345347294</v>
       </c>
       <c r="S13" t="n">
-        <v>1118.522851504368</v>
+        <v>996.278334508756</v>
       </c>
       <c r="T13" t="n">
-        <v>1022.755155195589</v>
+        <v>878.1585453792929</v>
       </c>
       <c r="U13" t="n">
-        <v>862.6920735418878</v>
+        <v>718.0954637255916</v>
       </c>
       <c r="V13" t="n">
-        <v>737.0866921010393</v>
+        <v>592.4900822847428</v>
       </c>
       <c r="W13" t="n">
-        <v>576.748628829117</v>
+        <v>432.1520190128203</v>
       </c>
       <c r="X13" t="n">
-        <v>477.838184696138</v>
+        <v>333.2415748798411</v>
       </c>
       <c r="Y13" t="n">
-        <v>386.1247123176462</v>
+        <v>241.5281025013492</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>827.2210364365806</v>
+        <v>697.2231489683187</v>
       </c>
       <c r="C14" t="n">
-        <v>827.2210364365806</v>
+        <v>457.3397387929451</v>
       </c>
       <c r="D14" t="n">
-        <v>598.0344445948683</v>
+        <v>457.3397387929451</v>
       </c>
       <c r="E14" t="n">
-        <v>598.0344445948683</v>
+        <v>457.3397387929451</v>
       </c>
       <c r="F14" t="n">
-        <v>316.1276465702994</v>
+        <v>175.4329407683756</v>
       </c>
       <c r="G14" t="n">
-        <v>28.5271914836042</v>
+        <v>175.4329407683756</v>
       </c>
       <c r="H14" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="I14" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006767</v>
+        <v>83.71911784006761</v>
       </c>
       <c r="K14" t="n">
-        <v>217.1760266634137</v>
+        <v>217.1760266634142</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838404</v>
+        <v>419.6428849838411</v>
       </c>
       <c r="M14" t="n">
-        <v>676.595713496533</v>
+        <v>676.5957134965337</v>
       </c>
       <c r="N14" t="n">
-        <v>942.3201157893054</v>
+        <v>942.320115789306</v>
       </c>
       <c r="O14" t="n">
-        <v>1179.900872569997</v>
+        <v>1179.900872569998</v>
       </c>
       <c r="P14" t="n">
         <v>1348.169550998291</v>
@@ -5303,25 +5303,25 @@
         <v>1426.35957418021</v>
       </c>
       <c r="S14" t="n">
-        <v>1408.52595468311</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="T14" t="n">
-        <v>1324.592182379935</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="U14" t="n">
-        <v>1324.592182379935</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="V14" t="n">
-        <v>1324.592182379935</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="W14" t="n">
-        <v>1324.592182379935</v>
+        <v>1202.670025675134</v>
       </c>
       <c r="X14" t="n">
-        <v>1088.281261647354</v>
+        <v>958.2833741790924</v>
       </c>
       <c r="Y14" t="n">
-        <v>827.2210364365806</v>
+        <v>697.2231489683187</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>421.3444839233109</v>
+        <v>665.8305173718028</v>
       </c>
       <c r="C15" t="n">
-        <v>246.8914546421839</v>
+        <v>491.3774880906758</v>
       </c>
       <c r="D15" t="n">
-        <v>227.0361517459709</v>
+        <v>342.4430784294245</v>
       </c>
       <c r="E15" t="n">
-        <v>67.79869674051542</v>
+        <v>183.2056234239691</v>
       </c>
       <c r="F15" t="n">
-        <v>50.34324553243869</v>
+        <v>36.67106545085403</v>
       </c>
       <c r="G15" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="H15" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="I15" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="J15" t="n">
-        <v>42.58127776197347</v>
+        <v>167.4114027489782</v>
       </c>
       <c r="K15" t="n">
-        <v>144.7567744385586</v>
+        <v>269.5868994255634</v>
       </c>
       <c r="L15" t="n">
-        <v>328.4668801148404</v>
+        <v>453.2970051018451</v>
       </c>
       <c r="M15" t="n">
-        <v>681.4908747244423</v>
+        <v>687.0349015524434</v>
       </c>
       <c r="N15" t="n">
-        <v>935.8237627010176</v>
+        <v>1016.283936160735</v>
       </c>
       <c r="O15" t="n">
-        <v>1146.268872038072</v>
+        <v>1226.72904549779</v>
       </c>
       <c r="P15" t="n">
-        <v>1295.83655920635</v>
+        <v>1376.296732666068</v>
       </c>
       <c r="Q15" t="n">
         <v>1426.35957418021</v>
       </c>
       <c r="R15" t="n">
-        <v>1418.808682286723</v>
+        <v>1418.808682286724</v>
       </c>
       <c r="S15" t="n">
-        <v>1273.398891427673</v>
+        <v>1402.477998192711</v>
       </c>
       <c r="T15" t="n">
-        <v>1206.369075769038</v>
+        <v>1335.448182534076</v>
       </c>
       <c r="U15" t="n">
-        <v>978.2446578136568</v>
+        <v>1236.402871343733</v>
       </c>
       <c r="V15" t="n">
-        <v>872.1716563469524</v>
+        <v>1130.329869877028</v>
       </c>
       <c r="W15" t="n">
-        <v>747.0134063837891</v>
+        <v>1005.171619913865</v>
       </c>
       <c r="X15" t="n">
-        <v>539.1619061782562</v>
+        <v>926.39922647337</v>
       </c>
       <c r="Y15" t="n">
-        <v>460.4807141783406</v>
+        <v>834.0458543918708</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>333.5553542524448</v>
+        <v>322.9663216527581</v>
       </c>
       <c r="C16" t="n">
-        <v>293.6982780895761</v>
+        <v>283.1092454898892</v>
       </c>
       <c r="D16" t="n">
-        <v>272.6607454422787</v>
+        <v>262.0717128425916</v>
       </c>
       <c r="E16" t="n">
-        <v>253.8267586249239</v>
+        <v>243.2377260252366</v>
       </c>
       <c r="F16" t="n">
-        <v>220.4984148407922</v>
+        <v>225.4268852923644</v>
       </c>
       <c r="G16" t="n">
-        <v>52.07468323515425</v>
+        <v>186.0822604517645</v>
       </c>
       <c r="H16" t="n">
-        <v>28.5271914836042</v>
+        <v>33.45566193517614</v>
       </c>
       <c r="I16" t="n">
-        <v>28.5271914836042</v>
+        <v>33.45566193517614</v>
       </c>
       <c r="J16" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="K16" t="n">
         <v>150.4262071982333</v>
@@ -5461,25 +5461,25 @@
         <v>1193.692862342905</v>
       </c>
       <c r="S16" t="n">
-        <v>1118.522851504368</v>
+        <v>1107.933818904683</v>
       </c>
       <c r="T16" t="n">
-        <v>1022.755155195589</v>
+        <v>1012.166122595904</v>
       </c>
       <c r="U16" t="n">
-        <v>862.6920735418878</v>
+        <v>852.1030409422024</v>
       </c>
       <c r="V16" t="n">
-        <v>737.0866921010393</v>
+        <v>726.4976595013536</v>
       </c>
       <c r="W16" t="n">
-        <v>576.748628829117</v>
+        <v>566.159596229431</v>
       </c>
       <c r="X16" t="n">
-        <v>477.838184696138</v>
+        <v>467.2491520964518</v>
       </c>
       <c r="Y16" t="n">
-        <v>386.1247123176462</v>
+        <v>375.5356797179597</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.9578074646644</v>
+        <v>810.9578074646647</v>
       </c>
       <c r="C17" t="n">
-        <v>687.3775825010953</v>
+        <v>687.3775825010952</v>
       </c>
       <c r="D17" t="n">
-        <v>574.4941758711875</v>
+        <v>574.4941758711872</v>
       </c>
       <c r="E17" t="n">
-        <v>434.0882152497858</v>
+        <v>434.0882152497854</v>
       </c>
       <c r="F17" t="n">
-        <v>268.4846024370207</v>
+        <v>268.4846024370204</v>
       </c>
       <c r="G17" t="n">
-        <v>97.18733256212988</v>
+        <v>97.18733256212982</v>
       </c>
       <c r="H17" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="I17" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="J17" t="n">
-        <v>83.71911784006738</v>
+        <v>83.7191178400675</v>
       </c>
       <c r="K17" t="n">
         <v>217.1760266634135</v>
       </c>
       <c r="L17" t="n">
-        <v>419.6428849838404</v>
+        <v>419.6428849838405</v>
       </c>
       <c r="M17" t="n">
-        <v>676.595713496533</v>
+        <v>676.5957134965331</v>
       </c>
       <c r="N17" t="n">
-        <v>942.3201157893053</v>
+        <v>942.3201157893054</v>
       </c>
       <c r="O17" t="n">
         <v>1179.900872569997</v>
       </c>
       <c r="P17" t="n">
-        <v>1348.169550998291</v>
+        <v>1348.16955099829</v>
       </c>
       <c r="Q17" t="n">
         <v>1426.35957418021</v>
@@ -5558,7 +5558,7 @@
         <v>1096.932395550913</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.1753555519435</v>
+        <v>952.175355551944</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>794.909624136841</v>
+        <v>657.686643404553</v>
       </c>
       <c r="C18" t="n">
-        <v>620.456594855714</v>
+        <v>483.233614123426</v>
       </c>
       <c r="D18" t="n">
-        <v>471.5221851944627</v>
+        <v>334.2992044621747</v>
       </c>
       <c r="E18" t="n">
-        <v>312.2847301890072</v>
+        <v>175.0617494567192</v>
       </c>
       <c r="F18" t="n">
-        <v>165.7501722158921</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="G18" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="H18" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="I18" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="J18" t="n">
-        <v>42.58127776197347</v>
+        <v>167.4114027489782</v>
       </c>
       <c r="K18" t="n">
-        <v>144.7567744385586</v>
+        <v>269.5868994255634</v>
       </c>
       <c r="L18" t="n">
-        <v>328.4668801148404</v>
+        <v>453.2970051018451</v>
       </c>
       <c r="M18" t="n">
-        <v>562.2047765654386</v>
+        <v>687.0349015524434</v>
       </c>
       <c r="N18" t="n">
-        <v>816.5376645420138</v>
+        <v>1016.283936160735</v>
       </c>
       <c r="O18" t="n">
-        <v>1169.561659151616</v>
+        <v>1226.729045497789</v>
       </c>
       <c r="P18" t="n">
-        <v>1376.296732666068</v>
+        <v>1376.296732666067</v>
       </c>
       <c r="Q18" t="n">
         <v>1426.35957418021</v>
       </c>
       <c r="R18" t="n">
-        <v>1426.35957418021</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="S18" t="n">
-        <v>1280.949783321159</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="T18" t="n">
-        <v>1280.949783321159</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="U18" t="n">
-        <v>1246.768297325476</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="V18" t="n">
-        <v>1011.616189093733</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="W18" t="n">
-        <v>1002.761124342374</v>
+        <v>1241.513779395108</v>
       </c>
       <c r="X18" t="n">
-        <v>794.909624136841</v>
+        <v>1033.662279189575</v>
       </c>
       <c r="Y18" t="n">
-        <v>794.909624136841</v>
+        <v>825.9019804246211</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>642.3830549041503</v>
+        <v>615.4724244219475</v>
       </c>
       <c r="C19" t="n">
-        <v>473.4468719762434</v>
+        <v>615.4724244219475</v>
       </c>
       <c r="D19" t="n">
-        <v>323.3302325639077</v>
+        <v>615.4724244219475</v>
       </c>
       <c r="E19" t="n">
-        <v>175.4171389815145</v>
+        <v>615.4724244219475</v>
       </c>
       <c r="F19" t="n">
-        <v>28.5271914836042</v>
+        <v>468.5824769240371</v>
       </c>
       <c r="G19" t="n">
-        <v>28.5271914836042</v>
+        <v>300.1587453183992</v>
       </c>
       <c r="H19" t="n">
-        <v>28.5271914836042</v>
+        <v>147.5321468018108</v>
       </c>
       <c r="I19" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="J19" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="K19" t="n">
         <v>150.4262071982333</v>
       </c>
       <c r="L19" t="n">
-        <v>361.9414135537029</v>
+        <v>361.9414135537028</v>
       </c>
       <c r="M19" t="n">
         <v>595.3436651297678</v>
@@ -5701,22 +5701,22 @@
         <v>989.4437447393295</v>
       </c>
       <c r="T19" t="n">
-        <v>989.4437447393295</v>
+        <v>764.5969416655123</v>
       </c>
       <c r="U19" t="n">
-        <v>945.6838482974324</v>
+        <v>668.80949871111</v>
       </c>
       <c r="V19" t="n">
-        <v>914.4074838622857</v>
+        <v>659.5073024820656</v>
       </c>
       <c r="W19" t="n">
-        <v>870.3726058021676</v>
+        <v>615.4724244219475</v>
       </c>
       <c r="X19" t="n">
-        <v>642.3830549041503</v>
+        <v>615.4724244219475</v>
       </c>
       <c r="Y19" t="n">
-        <v>642.3830549041503</v>
+        <v>615.4724244219475</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646647</v>
+        <v>810.9578074646646</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010955</v>
+        <v>687.3775825010954</v>
       </c>
       <c r="D20" t="n">
-        <v>574.4941758711875</v>
+        <v>574.4941758711874</v>
       </c>
       <c r="E20" t="n">
-        <v>434.0882152497858</v>
+        <v>434.0882152497857</v>
       </c>
       <c r="F20" t="n">
-        <v>268.4846024370207</v>
+        <v>268.4846024370206</v>
       </c>
       <c r="G20" t="n">
-        <v>97.18733256212987</v>
+        <v>97.1873325621298</v>
       </c>
       <c r="H20" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="I20" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006807</v>
+        <v>83.71911784006738</v>
       </c>
       <c r="K20" t="n">
-        <v>217.1760266634137</v>
+        <v>217.1760266634135</v>
       </c>
       <c r="L20" t="n">
-        <v>419.6428849838408</v>
+        <v>419.6428849838404</v>
       </c>
       <c r="M20" t="n">
-        <v>676.5957134965333</v>
+        <v>676.595713496533</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893056</v>
+        <v>942.3201157893053</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569997</v>
@@ -5771,16 +5771,16 @@
         <v>1348.169550998291</v>
       </c>
       <c r="Q20" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="R20" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="S20" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="T20" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="U20" t="n">
         <v>1418.08282049515</v>
@@ -5795,7 +5795,7 @@
         <v>1096.932395550913</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.175355551944</v>
+        <v>952.1753555519438</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>471.5221851944627</v>
+        <v>202.9802207647312</v>
       </c>
       <c r="C21" t="n">
-        <v>471.5221851944627</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="D21" t="n">
-        <v>471.5221851944627</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="E21" t="n">
-        <v>312.2847301890072</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="F21" t="n">
-        <v>165.7501722158921</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="G21" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="H21" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="I21" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="J21" t="n">
-        <v>42.58127776197351</v>
+        <v>42.58127776197347</v>
       </c>
       <c r="K21" t="n">
-        <v>144.7567744385588</v>
+        <v>144.7567744385586</v>
       </c>
       <c r="L21" t="n">
-        <v>328.4668801148405</v>
+        <v>328.4668801148404</v>
       </c>
       <c r="M21" t="n">
-        <v>562.2047765654388</v>
+        <v>562.2047765654386</v>
       </c>
       <c r="N21" t="n">
-        <v>816.5376645420142</v>
+        <v>816.5376645420138</v>
       </c>
       <c r="O21" t="n">
         <v>1026.982773879069</v>
@@ -5850,31 +5850,31 @@
         <v>1176.550461047347</v>
       </c>
       <c r="Q21" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="R21" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="S21" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="T21" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="U21" t="n">
-        <v>1299.356494168119</v>
+        <v>1276.19682171523</v>
       </c>
       <c r="V21" t="n">
-        <v>1064.204385936377</v>
+        <v>1041.044713483488</v>
       </c>
       <c r="W21" t="n">
-        <v>1055.349321185018</v>
+        <v>786.807356755286</v>
       </c>
       <c r="X21" t="n">
-        <v>847.4978209794847</v>
+        <v>578.9558565497532</v>
       </c>
       <c r="Y21" t="n">
-        <v>639.7375222145307</v>
+        <v>371.1955577847992</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>197.4633744115111</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="C22" t="n">
-        <v>28.52719148360421</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="D22" t="n">
-        <v>28.52719148360421</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="E22" t="n">
-        <v>28.52719148360421</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="F22" t="n">
-        <v>28.52719148360421</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="G22" t="n">
-        <v>28.52719148360421</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="H22" t="n">
-        <v>28.52719148360421</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="I22" t="n">
-        <v>28.52719148360421</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="J22" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="K22" t="n">
         <v>150.4262071982333</v>
@@ -5917,43 +5917,43 @@
         <v>361.9414135537029</v>
       </c>
       <c r="M22" t="n">
-        <v>595.3436651297679</v>
+        <v>595.3436651297678</v>
       </c>
       <c r="N22" t="n">
-        <v>828.6307492648905</v>
+        <v>828.6307492648903</v>
       </c>
       <c r="O22" t="n">
         <v>1028.092834557911</v>
       </c>
       <c r="P22" t="n">
-        <v>1175.246424437234</v>
+        <v>1175.246424437233</v>
       </c>
       <c r="Q22" t="n">
-        <v>1193.692862342906</v>
+        <v>1193.692862342905</v>
       </c>
       <c r="R22" t="n">
-        <v>1193.692862342906</v>
+        <v>1071.448345347294</v>
       </c>
       <c r="S22" t="n">
-        <v>989.44374473933</v>
+        <v>867.1992277437178</v>
       </c>
       <c r="T22" t="n">
-        <v>764.5969416655128</v>
+        <v>642.3524246699005</v>
       </c>
       <c r="U22" t="n">
-        <v>496.1827406775161</v>
+        <v>353.2102362511609</v>
       </c>
       <c r="V22" t="n">
-        <v>486.8805444484717</v>
+        <v>98.52574804527407</v>
       </c>
       <c r="W22" t="n">
-        <v>197.4633744115111</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="X22" t="n">
-        <v>197.4633744115111</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="Y22" t="n">
-        <v>197.4633744115111</v>
+        <v>33.45566193517613</v>
       </c>
     </row>
     <row r="23">
@@ -5963,61 +5963,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646647</v>
+        <v>810.9578074646652</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010954</v>
+        <v>687.377582501096</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711875</v>
+        <v>574.494175871188</v>
       </c>
       <c r="E23" t="n">
-        <v>434.0882152497861</v>
+        <v>434.0882152497862</v>
       </c>
       <c r="F23" t="n">
-        <v>268.4846024370211</v>
+        <v>268.4846024370212</v>
       </c>
       <c r="G23" t="n">
-        <v>97.18733256212987</v>
+        <v>97.1873325621298</v>
       </c>
       <c r="H23" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="I23" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="J23" t="n">
-        <v>83.71911784006768</v>
+        <v>83.71911784006767</v>
       </c>
       <c r="K23" t="n">
-        <v>217.1760266634144</v>
+        <v>217.1760266634137</v>
       </c>
       <c r="L23" t="n">
-        <v>419.6428849838414</v>
+        <v>419.6428849838404</v>
       </c>
       <c r="M23" t="n">
-        <v>676.595713496534</v>
+        <v>676.595713496533</v>
       </c>
       <c r="N23" t="n">
-        <v>942.3201157893063</v>
+        <v>942.3201157893053</v>
       </c>
       <c r="O23" t="n">
-        <v>1179.900872569998</v>
+        <v>1179.900872569997</v>
       </c>
       <c r="P23" t="n">
         <v>1348.169550998291</v>
       </c>
       <c r="Q23" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="R23" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="S23" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="T23" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="U23" t="n">
         <v>1418.082820495151</v>
@@ -6029,10 +6029,10 @@
         <v>1225.015861835151</v>
       </c>
       <c r="X23" t="n">
-        <v>1096.932395550913</v>
+        <v>1096.932395550914</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.175355551944</v>
+        <v>952.1753555519444</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>572.7285672268499</v>
+        <v>657.686643404553</v>
       </c>
       <c r="C24" t="n">
-        <v>572.7285672268499</v>
+        <v>483.233614123426</v>
       </c>
       <c r="D24" t="n">
-        <v>423.7941575655987</v>
+        <v>334.2992044621747</v>
       </c>
       <c r="E24" t="n">
-        <v>264.5567025601432</v>
+        <v>175.0617494567192</v>
       </c>
       <c r="F24" t="n">
-        <v>264.5567025601432</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="G24" t="n">
-        <v>127.3337218278553</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="H24" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="I24" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="J24" t="n">
-        <v>42.58127776197348</v>
+        <v>42.58127776197347</v>
       </c>
       <c r="K24" t="n">
-        <v>144.7567744385587</v>
+        <v>344.5030460572796</v>
       </c>
       <c r="L24" t="n">
-        <v>328.4668801148404</v>
+        <v>528.2131517335613</v>
       </c>
       <c r="M24" t="n">
-        <v>562.2047765654386</v>
+        <v>761.9510481841596</v>
       </c>
       <c r="N24" t="n">
-        <v>816.5376645420138</v>
+        <v>1016.283936160735</v>
       </c>
       <c r="O24" t="n">
-        <v>1026.982773879069</v>
+        <v>1226.72904549779</v>
       </c>
       <c r="P24" t="n">
         <v>1376.296732666068</v>
       </c>
       <c r="Q24" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="R24" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="S24" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="T24" t="n">
-        <v>1222.69975986305</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="U24" t="n">
-        <v>994.5753419076694</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="V24" t="n">
-        <v>994.5753419076694</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="W24" t="n">
-        <v>740.3379851794678</v>
+        <v>1241.513779395108</v>
       </c>
       <c r="X24" t="n">
-        <v>740.3379851794678</v>
+        <v>1033.662279189575</v>
       </c>
       <c r="Y24" t="n">
-        <v>740.3379851794678</v>
+        <v>825.9019804246211</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>344.3533219094215</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="C25" t="n">
-        <v>175.4171389815146</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="D25" t="n">
-        <v>175.4171389815146</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="E25" t="n">
-        <v>175.4171389815146</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="F25" t="n">
-        <v>28.52719148360421</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="G25" t="n">
-        <v>28.52719148360421</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="H25" t="n">
-        <v>28.52719148360421</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="I25" t="n">
-        <v>28.52719148360421</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="J25" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="K25" t="n">
         <v>150.4262071982333</v>
@@ -6169,28 +6169,28 @@
         <v>1193.692862342905</v>
       </c>
       <c r="R25" t="n">
-        <v>1193.692862342905</v>
+        <v>1071.448345347294</v>
       </c>
       <c r="S25" t="n">
-        <v>989.4437447393295</v>
+        <v>1071.448345347294</v>
       </c>
       <c r="T25" t="n">
-        <v>989.4437447393295</v>
+        <v>846.6015422734763</v>
       </c>
       <c r="U25" t="n">
-        <v>945.6838482974324</v>
+        <v>557.4593538547367</v>
       </c>
       <c r="V25" t="n">
-        <v>837.170330011087</v>
+        <v>302.7748656488499</v>
       </c>
       <c r="W25" t="n">
-        <v>793.1354519509689</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="X25" t="n">
-        <v>565.1459010529516</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="Y25" t="n">
-        <v>344.3533219094215</v>
+        <v>33.45566193517613</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.642009607696</v>
+        <v>1619.642009607693</v>
       </c>
       <c r="C26" t="n">
-        <v>1366.982677879088</v>
+        <v>1366.982677879086</v>
       </c>
       <c r="D26" t="n">
-        <v>1125.020164484142</v>
+        <v>1125.02016448414</v>
       </c>
       <c r="E26" t="n">
-        <v>855.535097097702</v>
+        <v>855.5350970977</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198983</v>
+        <v>560.8523775198969</v>
       </c>
       <c r="G26" t="n">
-        <v>260.4760008799683</v>
+        <v>260.476000879968</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I26" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J26" t="n">
-        <v>285.3343284132208</v>
+        <v>117.9286793928677</v>
       </c>
       <c r="K26" t="n">
-        <v>515.2459904567679</v>
+        <v>251.3855882162137</v>
       </c>
       <c r="L26" t="n">
-        <v>1131.197451182141</v>
+        <v>867.3370489415867</v>
       </c>
       <c r="M26" t="n">
-        <v>1833.168677852738</v>
+        <v>1569.308275612183</v>
       </c>
       <c r="N26" t="n">
-        <v>2098.89308014551</v>
+        <v>2268.00613307282</v>
       </c>
       <c r="O26" t="n">
-        <v>2336.473836926201</v>
+        <v>2882.57906930363</v>
       </c>
       <c r="P26" t="n">
-        <v>2823.323236444263</v>
+        <v>3050.847747731923</v>
       </c>
       <c r="Q26" t="n">
-        <v>3111.705100379488</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.837651820214</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="S26" t="n">
-        <v>3106.22811076988</v>
+        <v>3106.228110769877</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.51841691347</v>
+        <v>3009.518416913467</v>
       </c>
       <c r="U26" t="n">
-        <v>2872.162556463373</v>
+        <v>2872.16255646337</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.402854331607</v>
+        <v>2657.402854331604</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.937384273297</v>
+        <v>2420.937384273294</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.774811224021</v>
+        <v>2163.774811224018</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.938664460013</v>
+        <v>1889.938664460011</v>
       </c>
     </row>
     <row r="27">
@@ -6294,28 +6294,28 @@
         <v>337.151065282067</v>
       </c>
       <c r="G27" t="n">
-        <v>199.9280845497791</v>
+        <v>199.928084549779</v>
       </c>
       <c r="H27" t="n">
-        <v>101.121554205528</v>
+        <v>101.1215542055279</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J27" t="n">
-        <v>201.6209643017783</v>
+        <v>201.6209643017782</v>
       </c>
       <c r="K27" t="n">
         <v>565.6170456208163</v>
       </c>
       <c r="L27" t="n">
-        <v>1116.459093147523</v>
+        <v>749.327151297098</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.057959477027</v>
+        <v>983.0650477476963</v>
       </c>
       <c r="N27" t="n">
-        <v>1683.390847453603</v>
+        <v>1293.467151369641</v>
       </c>
       <c r="O27" t="n">
         <v>1893.835956790658</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.5256054147541</v>
+        <v>302.5256054147526</v>
       </c>
       <c r="C28" t="n">
-        <v>249.8926076986514</v>
+        <v>249.89260769865</v>
       </c>
       <c r="D28" t="n">
-        <v>216.0791534981198</v>
+        <v>216.0791534981187</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275309</v>
+        <v>184.46924512753</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414247</v>
+        <v>153.882482841424</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475909</v>
+        <v>101.7619364475904</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280673</v>
+        <v>65.43852314280645</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J28" t="n">
-        <v>62.73675303640428</v>
+        <v>105.6461468555906</v>
       </c>
       <c r="K28" t="n">
-        <v>184.6357687510334</v>
+        <v>227.5451625702197</v>
       </c>
       <c r="L28" t="n">
-        <v>396.1509751065029</v>
+        <v>439.0603689256892</v>
       </c>
       <c r="M28" t="n">
-        <v>629.5532266825679</v>
+        <v>672.4626205017541</v>
       </c>
       <c r="N28" t="n">
-        <v>862.8403108176904</v>
+        <v>905.7497046368766</v>
       </c>
       <c r="O28" t="n">
-        <v>1062.302396110711</v>
+        <v>1105.211789929897</v>
       </c>
       <c r="P28" t="n">
-        <v>1252.365379809223</v>
+        <v>1252.36537980922</v>
       </c>
       <c r="Q28" t="n">
-        <v>1270.811817714895</v>
+        <v>1270.811817714892</v>
       </c>
       <c r="R28" t="n">
-        <v>1264.870485931088</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S28" t="n">
-        <v>1176.924553539316</v>
+        <v>1176.924553539313</v>
       </c>
       <c r="T28" t="n">
-        <v>1068.380935677303</v>
+        <v>1068.3809356773</v>
       </c>
       <c r="U28" t="n">
-        <v>895.541932470368</v>
+        <v>895.5419324703653</v>
       </c>
       <c r="V28" t="n">
-        <v>757.1606294762853</v>
+        <v>757.1606294762828</v>
       </c>
       <c r="W28" t="n">
-        <v>584.0466446511288</v>
+        <v>584.0466446511266</v>
       </c>
       <c r="X28" t="n">
-        <v>472.3602789649156</v>
+        <v>472.3602789649136</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8708850331897</v>
+        <v>367.8708850331879</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.642009607696</v>
+        <v>1619.642009607694</v>
       </c>
       <c r="C29" t="n">
-        <v>1366.982677879088</v>
+        <v>1366.982677879087</v>
       </c>
       <c r="D29" t="n">
-        <v>1125.020164484142</v>
+        <v>1125.020164484141</v>
       </c>
       <c r="E29" t="n">
-        <v>855.5350970977022</v>
+        <v>855.5350970977011</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198988</v>
+        <v>560.8523775198979</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799682</v>
+        <v>260.4760008799679</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I29" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J29" t="n">
-        <v>117.9286793928677</v>
+        <v>285.3343284132207</v>
       </c>
       <c r="K29" t="n">
-        <v>251.3855882162138</v>
+        <v>418.7912372365667</v>
       </c>
       <c r="L29" t="n">
-        <v>867.3370489415868</v>
+        <v>1034.74269796194</v>
       </c>
       <c r="M29" t="n">
-        <v>1569.308275612183</v>
+        <v>1736.713924632536</v>
       </c>
       <c r="N29" t="n">
-        <v>1835.032677904956</v>
+        <v>2435.411782093173</v>
       </c>
       <c r="O29" t="n">
-        <v>2449.605614135765</v>
+        <v>2672.992538873865</v>
       </c>
       <c r="P29" t="n">
-        <v>2823.323236444263</v>
+        <v>2841.261217302158</v>
       </c>
       <c r="Q29" t="n">
-        <v>3111.705100379488</v>
+        <v>3111.705100379484</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.837651820214</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.22811076988</v>
+        <v>3106.228110769875</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.518416913471</v>
+        <v>3009.518416913467</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.162556463373</v>
+        <v>2872.16255646337</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.402854331607</v>
+        <v>2657.402854331604</v>
       </c>
       <c r="W29" t="n">
-        <v>2420.937384273297</v>
+        <v>2420.937384273294</v>
       </c>
       <c r="X29" t="n">
-        <v>2163.774811224021</v>
+        <v>2163.774811224019</v>
       </c>
       <c r="Y29" t="n">
-        <v>1889.938664460014</v>
+        <v>1889.938664460011</v>
       </c>
     </row>
     <row r="30">
@@ -6531,31 +6531,31 @@
         <v>337.151065282067</v>
       </c>
       <c r="G30" t="n">
-        <v>199.9280845497791</v>
+        <v>199.928084549779</v>
       </c>
       <c r="H30" t="n">
-        <v>101.121554205528</v>
+        <v>101.1215542055279</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J30" t="n">
-        <v>76.79083931477355</v>
+        <v>201.6209643017782</v>
       </c>
       <c r="K30" t="n">
-        <v>440.7869206338116</v>
+        <v>565.6170456208163</v>
       </c>
       <c r="L30" t="n">
-        <v>991.6289681605178</v>
+        <v>1116.459093147523</v>
       </c>
       <c r="M30" t="n">
-        <v>1225.366864611116</v>
+        <v>1429.057959477027</v>
       </c>
       <c r="N30" t="n">
-        <v>1608.745292323178</v>
+        <v>1683.390847453603</v>
       </c>
       <c r="O30" t="n">
-        <v>2209.114097744195</v>
+        <v>1893.835956790658</v>
       </c>
       <c r="P30" t="n">
         <v>2358.681784912473</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147541</v>
+        <v>302.5256054147521</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986513</v>
+        <v>249.8926076986497</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981198</v>
+        <v>216.0791534981184</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275309</v>
+        <v>184.4692451275297</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414247</v>
+        <v>153.8824828414238</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475909</v>
+        <v>101.7619364475903</v>
       </c>
       <c r="H31" t="n">
-        <v>65.43852314280672</v>
+        <v>65.43852314280639</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J31" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="K31" t="n">
-        <v>184.6357687510334</v>
+        <v>184.6357687510333</v>
       </c>
       <c r="L31" t="n">
-        <v>396.1509751065029</v>
+        <v>439.0603689256885</v>
       </c>
       <c r="M31" t="n">
-        <v>672.4626205017576</v>
+        <v>672.4626205017535</v>
       </c>
       <c r="N31" t="n">
-        <v>905.74970463688</v>
+        <v>905.7497046368759</v>
       </c>
       <c r="O31" t="n">
-        <v>1105.211789929901</v>
+        <v>1105.211789929897</v>
       </c>
       <c r="P31" t="n">
-        <v>1252.365379809223</v>
+        <v>1252.365379809219</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.811817714895</v>
+        <v>1270.811817714891</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931088</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.924553539316</v>
+        <v>1176.924553539312</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677303</v>
+        <v>1068.3809356773</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703678</v>
+        <v>895.5419324703646</v>
       </c>
       <c r="V31" t="n">
-        <v>757.1606294762851</v>
+        <v>757.1606294762821</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511286</v>
+        <v>584.0466446511259</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649154</v>
+        <v>472.3602789649131</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331896</v>
+        <v>367.8708850331874</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.642009607695</v>
+        <v>1619.642009607694</v>
       </c>
       <c r="C32" t="n">
-        <v>1366.982677879088</v>
+        <v>1366.982677879087</v>
       </c>
       <c r="D32" t="n">
         <v>1125.020164484141</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970977012</v>
+        <v>855.5350970977009</v>
       </c>
       <c r="F32" t="n">
         <v>560.8523775198978</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799682</v>
+        <v>260.4760008799679</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I32" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J32" t="n">
-        <v>285.3343284132208</v>
+        <v>285.3343284132207</v>
       </c>
       <c r="K32" t="n">
-        <v>588.9159078423618</v>
+        <v>739.6951956820199</v>
       </c>
       <c r="L32" t="n">
-        <v>791.3827661627888</v>
+        <v>1143.242394172177</v>
       </c>
       <c r="M32" t="n">
-        <v>1048.335594675481</v>
+        <v>1400.195222684869</v>
       </c>
       <c r="N32" t="n">
-        <v>1747.033452136118</v>
+        <v>2098.893080145506</v>
       </c>
       <c r="O32" t="n">
-        <v>2361.606388366928</v>
+        <v>2336.473836926198</v>
       </c>
       <c r="P32" t="n">
-        <v>2848.455787884989</v>
+        <v>2823.323236444259</v>
       </c>
       <c r="Q32" t="n">
-        <v>3136.837651820214</v>
+        <v>3111.705100379484</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.837651820214</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.22811076988</v>
+        <v>3106.228110769876</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.518416913471</v>
+        <v>3009.518416913468</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.162556463372</v>
+        <v>2872.16255646337</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331606</v>
+        <v>2657.402854331604</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.937384273296</v>
+        <v>2420.937384273294</v>
       </c>
       <c r="X32" t="n">
-        <v>2163.77481122402</v>
+        <v>2163.774811224019</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.938664460013</v>
+        <v>1889.938664460011</v>
       </c>
     </row>
     <row r="33">
@@ -6768,31 +6768,31 @@
         <v>337.151065282067</v>
       </c>
       <c r="G33" t="n">
-        <v>199.9280845497791</v>
+        <v>199.928084549779</v>
       </c>
       <c r="H33" t="n">
-        <v>101.121554205528</v>
+        <v>101.1215542055279</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J33" t="n">
-        <v>201.6209643017783</v>
+        <v>201.6209643017782</v>
       </c>
       <c r="K33" t="n">
         <v>565.6170456208163</v>
       </c>
       <c r="L33" t="n">
-        <v>1049.550190867467</v>
+        <v>1116.459093147523</v>
       </c>
       <c r="M33" t="n">
-        <v>1744.336100430565</v>
+        <v>1429.057959477027</v>
       </c>
       <c r="N33" t="n">
-        <v>1998.66898840714</v>
+        <v>1683.390847453603</v>
       </c>
       <c r="O33" t="n">
-        <v>2209.114097744195</v>
+        <v>1893.835956790658</v>
       </c>
       <c r="P33" t="n">
         <v>2358.681784912473</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.5256054147541</v>
+        <v>302.5256054147522</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986513</v>
+        <v>249.8926076986498</v>
       </c>
       <c r="D34" t="n">
-        <v>216.0791534981198</v>
+        <v>216.0791534981185</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275309</v>
+        <v>184.4692451275298</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414247</v>
+        <v>153.8824828414239</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475909</v>
+        <v>101.7619364475903</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280672</v>
+        <v>65.4385231428064</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J34" t="n">
-        <v>62.73675303640428</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="K34" t="n">
-        <v>184.6357687510334</v>
+        <v>227.545162570219</v>
       </c>
       <c r="L34" t="n">
-        <v>396.1509751065029</v>
+        <v>439.0603689256885</v>
       </c>
       <c r="M34" t="n">
-        <v>629.5532266825679</v>
+        <v>672.4626205017535</v>
       </c>
       <c r="N34" t="n">
-        <v>862.8403108176904</v>
+        <v>905.7497046368759</v>
       </c>
       <c r="O34" t="n">
-        <v>1105.211789929901</v>
+        <v>1105.211789929897</v>
       </c>
       <c r="P34" t="n">
-        <v>1252.365379809223</v>
+        <v>1252.365379809219</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714895</v>
+        <v>1270.811817714891</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931088</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539316</v>
+        <v>1176.924553539312</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677303</v>
+        <v>1068.3809356773</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703678</v>
+        <v>895.5419324703646</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762851</v>
+        <v>757.1606294762822</v>
       </c>
       <c r="W34" t="n">
-        <v>584.0466446511286</v>
+        <v>584.046644651126</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649154</v>
+        <v>472.3602789649132</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331896</v>
+        <v>367.8708850331875</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291595</v>
+        <v>955.8582442291572</v>
       </c>
       <c r="C35" t="n">
-        <v>809.0750081497072</v>
+        <v>809.0750081497055</v>
       </c>
       <c r="D35" t="n">
-        <v>672.988590403916</v>
+        <v>672.9885904039146</v>
       </c>
       <c r="E35" t="n">
-        <v>509.379618666631</v>
+        <v>509.37961866663</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379828</v>
+        <v>320.5729947379821</v>
       </c>
       <c r="G35" t="n">
-        <v>126.072713747209</v>
+        <v>126.0727137472085</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155280008</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I35" t="n">
-        <v>34.20956155280008</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J35" t="n">
-        <v>89.40148790926355</v>
+        <v>89.40148790926347</v>
       </c>
       <c r="K35" t="n">
         <v>222.8583967326095</v>
       </c>
       <c r="L35" t="n">
-        <v>425.3252550530365</v>
+        <v>512.2383412996971</v>
       </c>
       <c r="M35" t="n">
-        <v>682.2780835657292</v>
+        <v>935.581665515597</v>
       </c>
       <c r="N35" t="n">
-        <v>1105.62140778163</v>
+        <v>1201.306067808369</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.019376029791</v>
+        <v>1438.886824589061</v>
       </c>
       <c r="P35" t="n">
-        <v>1632.288054458085</v>
+        <v>1607.155503017354</v>
       </c>
       <c r="Q35" t="n">
-        <v>1710.478077640004</v>
+        <v>1685.345526199274</v>
       </c>
       <c r="R35" t="n">
-        <v>1710.478077640004</v>
+        <v>1710.47807764</v>
       </c>
       <c r="S35" t="n">
-        <v>1710.478077640004</v>
+        <v>1710.47807764</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.478077640004</v>
+        <v>1710.47807764</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839061</v>
+        <v>1678.998312839057</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.11470635645</v>
+        <v>1570.114706356446</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.525331947295</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.238854547174</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.278803432322</v>
+        <v>1120.278803432319</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>609.4376670461704</v>
+        <v>663.3690134737489</v>
       </c>
       <c r="C36" t="n">
-        <v>434.9846377650434</v>
+        <v>488.9159841926218</v>
       </c>
       <c r="D36" t="n">
-        <v>434.9846377650434</v>
+        <v>339.9815745313705</v>
       </c>
       <c r="E36" t="n">
-        <v>275.7471827595879</v>
+        <v>180.744119525915</v>
       </c>
       <c r="F36" t="n">
-        <v>129.2126247864729</v>
+        <v>34.2095615528</v>
       </c>
       <c r="G36" t="n">
-        <v>34.20956155280008</v>
+        <v>34.2095615528</v>
       </c>
       <c r="H36" t="n">
-        <v>34.20956155280008</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155280008</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J36" t="n">
-        <v>48.26364783116935</v>
+        <v>173.093772818174</v>
       </c>
       <c r="K36" t="n">
-        <v>412.2597291502074</v>
+        <v>354.8459124694475</v>
       </c>
       <c r="L36" t="n">
-        <v>599.4334403145094</v>
+        <v>538.5560181457292</v>
       </c>
       <c r="M36" t="n">
-        <v>833.1713367651078</v>
+        <v>772.2939145963276</v>
       </c>
       <c r="N36" t="n">
-        <v>1087.504224741683</v>
+        <v>1026.626802572903</v>
       </c>
       <c r="O36" t="n">
-        <v>1510.847548957584</v>
+        <v>1237.071911909958</v>
       </c>
       <c r="P36" t="n">
-        <v>1660.415236125862</v>
+        <v>1660.415236125858</v>
       </c>
       <c r="Q36" t="n">
-        <v>1710.478077640004</v>
+        <v>1710.47807764</v>
       </c>
       <c r="R36" t="n">
-        <v>1702.927185746518</v>
+        <v>1702.927185746513</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.927185746518</v>
+        <v>1702.927185746513</v>
       </c>
       <c r="T36" t="n">
-        <v>1702.927185746518</v>
+        <v>1702.927185746513</v>
       </c>
       <c r="U36" t="n">
-        <v>1474.802767791137</v>
+        <v>1696.982048652092</v>
       </c>
       <c r="V36" t="n">
-        <v>1239.650659559394</v>
+        <v>1501.433506192505</v>
       </c>
       <c r="W36" t="n">
-        <v>985.4133028311924</v>
+        <v>1247.196149464304</v>
       </c>
       <c r="X36" t="n">
-        <v>985.4133028311924</v>
+        <v>1039.344649258771</v>
       </c>
       <c r="Y36" t="n">
-        <v>777.6530040662385</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.0995090507104</v>
+        <v>802.0121552225178</v>
       </c>
       <c r="C37" t="n">
-        <v>181.0995090507104</v>
+        <v>633.0759722946109</v>
       </c>
       <c r="D37" t="n">
-        <v>181.0995090507104</v>
+        <v>633.0759722946109</v>
       </c>
       <c r="E37" t="n">
-        <v>181.0995090507104</v>
+        <v>485.1628787122178</v>
       </c>
       <c r="F37" t="n">
-        <v>34.20956155280008</v>
+        <v>338.2729312143074</v>
       </c>
       <c r="G37" t="n">
-        <v>34.20956155280008</v>
+        <v>169.8491996086694</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155280008</v>
+        <v>39.13803200437193</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155280008</v>
+        <v>39.13803200437193</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155280008</v>
+        <v>34.2095615528</v>
       </c>
       <c r="K37" t="n">
-        <v>156.1085772674292</v>
+        <v>156.1085772674291</v>
       </c>
       <c r="L37" t="n">
-        <v>367.6237836228987</v>
+        <v>367.6237836228986</v>
       </c>
       <c r="M37" t="n">
-        <v>601.0260351989637</v>
+        <v>601.0260351989635</v>
       </c>
       <c r="N37" t="n">
-        <v>834.3131193340861</v>
+        <v>834.313119334086</v>
       </c>
       <c r="O37" t="n">
         <v>1033.775204627107</v>
@@ -7123,22 +7123,22 @@
         <v>1199.375232412101</v>
       </c>
       <c r="T37" t="n">
-        <v>979.6228097186361</v>
+        <v>1196.707710199243</v>
       </c>
       <c r="U37" t="n">
-        <v>690.4806212998965</v>
+        <v>1129.744802641463</v>
       </c>
       <c r="V37" t="n">
-        <v>657.9754139549689</v>
+        <v>875.0603144355765</v>
       </c>
       <c r="W37" t="n">
-        <v>368.5582439180082</v>
+        <v>807.8224252595755</v>
       </c>
       <c r="X37" t="n">
-        <v>362.7479738809501</v>
+        <v>802.0121552225178</v>
       </c>
       <c r="Y37" t="n">
-        <v>362.7479738809501</v>
+        <v>802.0121552225178</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291606</v>
+        <v>955.8582442291578</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497085</v>
+        <v>809.0750081497058</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039174</v>
+        <v>672.9885904039151</v>
       </c>
       <c r="E38" t="n">
-        <v>509.3796186666327</v>
+        <v>509.3796186666306</v>
       </c>
       <c r="F38" t="n">
-        <v>320.5729947379845</v>
+        <v>320.5729947379827</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472088</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155280008</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I38" t="n">
-        <v>34.20956155280008</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J38" t="n">
-        <v>256.8071369296166</v>
+        <v>256.8071369296165</v>
       </c>
       <c r="K38" t="n">
-        <v>501.2945301232078</v>
+        <v>390.2640457529625</v>
       </c>
       <c r="L38" t="n">
-        <v>703.7613884436348</v>
+        <v>592.7309040733894</v>
       </c>
       <c r="M38" t="n">
-        <v>960.7142169563274</v>
+        <v>849.683732586082</v>
       </c>
       <c r="N38" t="n">
-        <v>1226.4386192491</v>
+        <v>1115.408134878854</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.019376029791</v>
+        <v>1352.988891659546</v>
       </c>
       <c r="P38" t="n">
-        <v>1632.288054458085</v>
+        <v>1521.257570087839</v>
       </c>
       <c r="Q38" t="n">
-        <v>1710.478077640004</v>
+        <v>1710.47807764</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.478077640004</v>
+        <v>1710.47807764</v>
       </c>
       <c r="S38" t="n">
-        <v>1710.478077640004</v>
+        <v>1710.47807764</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077640004</v>
+        <v>1710.47807764</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839062</v>
+        <v>1678.998312839057</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.11470635645</v>
+        <v>1570.114706356447</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.525331947296</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.238854547175</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432323</v>
+        <v>1120.27880343232</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>527.3007853617455</v>
+        <v>663.3690134737489</v>
       </c>
       <c r="C39" t="n">
-        <v>527.3007853617455</v>
+        <v>488.9159841926218</v>
       </c>
       <c r="D39" t="n">
-        <v>378.3663757004943</v>
+        <v>339.9815745313705</v>
       </c>
       <c r="E39" t="n">
-        <v>219.1289206950388</v>
+        <v>180.744119525915</v>
       </c>
       <c r="F39" t="n">
-        <v>72.59436272192377</v>
+        <v>34.2095615528</v>
       </c>
       <c r="G39" t="n">
-        <v>72.59436272192377</v>
+        <v>34.2095615528</v>
       </c>
       <c r="H39" t="n">
-        <v>72.59436272192377</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155280008</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J39" t="n">
-        <v>48.26364783116935</v>
+        <v>48.26364783116927</v>
       </c>
       <c r="K39" t="n">
-        <v>388.9883309774546</v>
+        <v>150.4391445077545</v>
       </c>
       <c r="L39" t="n">
-        <v>812.3316551933556</v>
+        <v>334.1492501840362</v>
       </c>
       <c r="M39" t="n">
-        <v>1046.069551643954</v>
+        <v>567.8871466346345</v>
       </c>
       <c r="N39" t="n">
-        <v>1300.402439620529</v>
+        <v>822.2200346112097</v>
       </c>
       <c r="O39" t="n">
-        <v>1510.847548957584</v>
+        <v>1032.665143948265</v>
       </c>
       <c r="P39" t="n">
-        <v>1660.415236125862</v>
+        <v>1452.438721267367</v>
       </c>
       <c r="Q39" t="n">
-        <v>1710.478077640004</v>
+        <v>1710.47807764</v>
       </c>
       <c r="R39" t="n">
-        <v>1702.927185746518</v>
+        <v>1702.927185746513</v>
       </c>
       <c r="S39" t="n">
-        <v>1557.517394887467</v>
+        <v>1702.927185746513</v>
       </c>
       <c r="T39" t="n">
-        <v>1361.408472463793</v>
+        <v>1702.927185746513</v>
       </c>
       <c r="U39" t="n">
-        <v>1133.284054508413</v>
+        <v>1696.982048652092</v>
       </c>
       <c r="V39" t="n">
-        <v>898.1319462766699</v>
+        <v>1501.433506192505</v>
       </c>
       <c r="W39" t="n">
-        <v>866.0738704094276</v>
+        <v>1247.196149464304</v>
       </c>
       <c r="X39" t="n">
-        <v>735.0610841266994</v>
+        <v>1039.344649258771</v>
       </c>
       <c r="Y39" t="n">
-        <v>527.3007853617455</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.4363342387416</v>
+        <v>207.5617636100099</v>
       </c>
       <c r="C40" t="n">
-        <v>497.4363342387416</v>
+        <v>207.5617636100099</v>
       </c>
       <c r="D40" t="n">
-        <v>497.4363342387416</v>
+        <v>207.5617636100099</v>
       </c>
       <c r="E40" t="n">
-        <v>349.5232406563484</v>
+        <v>207.5617636100099</v>
       </c>
       <c r="F40" t="n">
-        <v>202.6332931584381</v>
+        <v>207.5617636100099</v>
       </c>
       <c r="G40" t="n">
-        <v>34.20956155280008</v>
+        <v>39.13803200437193</v>
       </c>
       <c r="H40" t="n">
-        <v>34.20956155280008</v>
+        <v>39.13803200437193</v>
       </c>
       <c r="I40" t="n">
-        <v>34.20956155280008</v>
+        <v>39.13803200437193</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155280008</v>
+        <v>34.2095615528</v>
       </c>
       <c r="K40" t="n">
-        <v>156.1085772674292</v>
+        <v>156.1085772674291</v>
       </c>
       <c r="L40" t="n">
-        <v>367.6237836228987</v>
+        <v>367.6237836228986</v>
       </c>
       <c r="M40" t="n">
-        <v>601.0260351989637</v>
+        <v>601.0260351989635</v>
       </c>
       <c r="N40" t="n">
-        <v>834.3131193340861</v>
+        <v>834.313119334086</v>
       </c>
       <c r="O40" t="n">
         <v>1033.775204627107</v>
@@ -7354,28 +7354,28 @@
         <v>1199.375232412101</v>
       </c>
       <c r="R40" t="n">
-        <v>1199.375232412101</v>
+        <v>1077.130715416489</v>
       </c>
       <c r="S40" t="n">
-        <v>1199.375232412101</v>
+        <v>872.8815978129135</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.707710199243</v>
+        <v>648.0347947390962</v>
       </c>
       <c r="U40" t="n">
-        <v>1129.744802641463</v>
+        <v>494.7635949982353</v>
       </c>
       <c r="V40" t="n">
-        <v>875.0603144355763</v>
+        <v>462.2583876533081</v>
       </c>
       <c r="W40" t="n">
-        <v>585.6431443986157</v>
+        <v>395.0204984773072</v>
       </c>
       <c r="X40" t="n">
-        <v>579.8328743615579</v>
+        <v>389.2102284402496</v>
       </c>
       <c r="Y40" t="n">
-        <v>497.4363342387416</v>
+        <v>389.2102284402496</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291599</v>
+        <v>955.858244229157</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497075</v>
+        <v>809.075008149705</v>
       </c>
       <c r="D41" t="n">
-        <v>672.9885904039165</v>
+        <v>672.9885904039143</v>
       </c>
       <c r="E41" t="n">
-        <v>509.379618666632</v>
+        <v>509.37961866663</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379839</v>
+        <v>320.5729947379821</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472088</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H41" t="n">
-        <v>34.20956155280007</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="I41" t="n">
-        <v>34.20956155280007</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J41" t="n">
-        <v>89.40148790926354</v>
+        <v>201.4471255966498</v>
       </c>
       <c r="K41" t="n">
-        <v>222.8583967326095</v>
+        <v>334.9040344199958</v>
       </c>
       <c r="L41" t="n">
-        <v>425.3252550530365</v>
+        <v>537.3708927404227</v>
       </c>
       <c r="M41" t="n">
-        <v>682.2780835657292</v>
+        <v>960.7142169563224</v>
       </c>
       <c r="N41" t="n">
-        <v>948.0024858585016</v>
+        <v>1226.438619249095</v>
       </c>
       <c r="O41" t="n">
-        <v>1185.583242639193</v>
+        <v>1464.019376029786</v>
       </c>
       <c r="P41" t="n">
-        <v>1422.096213704778</v>
+        <v>1632.28805445808</v>
       </c>
       <c r="Q41" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="R41" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="S41" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="U41" t="n">
-        <v>1678.998312839061</v>
+        <v>1678.998312839057</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.114706356449</v>
+        <v>1570.114706356445</v>
       </c>
       <c r="W41" t="n">
-        <v>1439.525331947295</v>
+        <v>1439.525331947291</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.238854547174</v>
+        <v>1288.238854547171</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.278803432322</v>
+        <v>1120.278803432319</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.5163596374171</v>
+        <v>623.7654477015922</v>
       </c>
       <c r="C42" t="n">
-        <v>368.0633303562901</v>
+        <v>449.3124184204652</v>
       </c>
       <c r="D42" t="n">
-        <v>219.1289206950388</v>
+        <v>300.3780087592139</v>
       </c>
       <c r="E42" t="n">
-        <v>219.1289206950388</v>
+        <v>141.1405537537584</v>
       </c>
       <c r="F42" t="n">
-        <v>72.59436272192376</v>
+        <v>72.59436272192366</v>
       </c>
       <c r="G42" t="n">
-        <v>72.59436272192376</v>
+        <v>72.59436272192366</v>
       </c>
       <c r="H42" t="n">
-        <v>72.59436272192376</v>
+        <v>72.59436272192366</v>
       </c>
       <c r="I42" t="n">
-        <v>34.20956155280007</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116934</v>
+        <v>48.26364783116924</v>
       </c>
       <c r="K42" t="n">
-        <v>165.2404847041477</v>
+        <v>150.4391445077544</v>
       </c>
       <c r="L42" t="n">
-        <v>348.9505903804294</v>
+        <v>334.1492501840362</v>
       </c>
       <c r="M42" t="n">
-        <v>772.2939145963303</v>
+        <v>567.8871466346345</v>
       </c>
       <c r="N42" t="n">
-        <v>1026.626802572905</v>
+        <v>822.2200346112097</v>
       </c>
       <c r="O42" t="n">
-        <v>1237.07191190996</v>
+        <v>1032.665143948265</v>
       </c>
       <c r="P42" t="n">
-        <v>1660.415236125861</v>
+        <v>1452.438721267366</v>
       </c>
       <c r="Q42" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="R42" t="n">
-        <v>1710.478077640003</v>
+        <v>1702.927185746512</v>
       </c>
       <c r="S42" t="n">
-        <v>1710.478077640003</v>
+        <v>1702.927185746512</v>
       </c>
       <c r="T42" t="n">
-        <v>1514.36915521633</v>
+        <v>1702.927185746512</v>
       </c>
       <c r="U42" t="n">
-        <v>1286.244737260949</v>
+        <v>1696.982048652091</v>
       </c>
       <c r="V42" t="n">
-        <v>1158.401571495214</v>
+        <v>1461.829940420349</v>
       </c>
       <c r="W42" t="n">
-        <v>1126.343495627972</v>
+        <v>1207.592583692147</v>
       </c>
       <c r="X42" t="n">
-        <v>918.491995422439</v>
+        <v>999.7410834866141</v>
       </c>
       <c r="Y42" t="n">
-        <v>710.7316966574851</v>
+        <v>791.9807847216603</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>333.7261075672988</v>
+        <v>924.1129979374441</v>
       </c>
       <c r="C43" t="n">
-        <v>333.7261075672988</v>
+        <v>924.1129979374441</v>
       </c>
       <c r="D43" t="n">
-        <v>333.7261075672988</v>
+        <v>773.9963585251083</v>
       </c>
       <c r="E43" t="n">
-        <v>333.7261075672988</v>
+        <v>626.0832649427152</v>
       </c>
       <c r="F43" t="n">
-        <v>186.8361600693884</v>
+        <v>479.1933174448048</v>
       </c>
       <c r="G43" t="n">
-        <v>186.8361600693884</v>
+        <v>310.7695858391669</v>
       </c>
       <c r="H43" t="n">
-        <v>34.20956155280007</v>
+        <v>158.1429873225785</v>
       </c>
       <c r="I43" t="n">
-        <v>34.20956155280007</v>
+        <v>39.13803200437191</v>
       </c>
       <c r="J43" t="n">
-        <v>34.20956155280007</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="K43" t="n">
-        <v>156.1085772674292</v>
+        <v>156.1085772674291</v>
       </c>
       <c r="L43" t="n">
-        <v>367.6237836228987</v>
+        <v>367.6237836228986</v>
       </c>
       <c r="M43" t="n">
-        <v>601.0260351989637</v>
+        <v>601.0260351989635</v>
       </c>
       <c r="N43" t="n">
-        <v>834.3131193340861</v>
+        <v>834.313119334086</v>
       </c>
       <c r="O43" t="n">
         <v>1033.775204627107</v>
@@ -7591,28 +7591,28 @@
         <v>1199.375232412101</v>
       </c>
       <c r="R43" t="n">
-        <v>1077.130715416489</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="S43" t="n">
-        <v>1077.130715416489</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="T43" t="n">
-        <v>852.2839123426722</v>
+        <v>1096.62927205321</v>
       </c>
       <c r="U43" t="n">
-        <v>785.3210047848921</v>
+        <v>1029.66636449543</v>
       </c>
       <c r="V43" t="n">
-        <v>752.8157974399646</v>
+        <v>997.1611571505027</v>
       </c>
       <c r="W43" t="n">
-        <v>560.3289567478868</v>
+        <v>929.9232679745018</v>
       </c>
       <c r="X43" t="n">
-        <v>554.5186867108289</v>
+        <v>924.1129979374441</v>
       </c>
       <c r="Y43" t="n">
-        <v>333.7261075672988</v>
+        <v>924.1129979374441</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291598</v>
+        <v>955.8582442291571</v>
       </c>
       <c r="C44" t="n">
-        <v>809.0750081497079</v>
+        <v>809.0750081497054</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039168</v>
+        <v>672.9885904039147</v>
       </c>
       <c r="E44" t="n">
-        <v>509.379618666632</v>
+        <v>509.3796186666301</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379839</v>
+        <v>320.5729947379823</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472088</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H44" t="n">
-        <v>34.20956155280007</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="I44" t="n">
-        <v>34.20956155280007</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J44" t="n">
-        <v>89.40148790926354</v>
+        <v>256.8071369296165</v>
       </c>
       <c r="K44" t="n">
-        <v>222.8583967326095</v>
+        <v>390.2640457529625</v>
       </c>
       <c r="L44" t="n">
-        <v>425.3252550530365</v>
+        <v>592.7309040733894</v>
       </c>
       <c r="M44" t="n">
-        <v>682.2780835657292</v>
+        <v>849.683732586082</v>
       </c>
       <c r="N44" t="n">
-        <v>1105.62140778163</v>
+        <v>1115.408134878854</v>
       </c>
       <c r="O44" t="n">
-        <v>1343.202164562322</v>
+        <v>1352.988891659546</v>
       </c>
       <c r="P44" t="n">
-        <v>1632.288054458084</v>
+        <v>1521.257570087839</v>
       </c>
       <c r="Q44" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="S44" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839061</v>
+        <v>1678.998312839057</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.11470635645</v>
+        <v>1570.114706356446</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947295</v>
+        <v>1439.525331947291</v>
       </c>
       <c r="X44" t="n">
-        <v>1288.238854547174</v>
+        <v>1288.238854547171</v>
       </c>
       <c r="Y44" t="n">
-        <v>1120.278803432322</v>
+        <v>1120.278803432319</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>497.6491265178916</v>
+        <v>663.3690134737487</v>
       </c>
       <c r="C45" t="n">
-        <v>497.6491265178916</v>
+        <v>488.9159841926217</v>
       </c>
       <c r="D45" t="n">
-        <v>378.3663757004943</v>
+        <v>339.9815745313705</v>
       </c>
       <c r="E45" t="n">
-        <v>219.1289206950388</v>
+        <v>180.744119525915</v>
       </c>
       <c r="F45" t="n">
-        <v>72.59436272192376</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="G45" t="n">
-        <v>72.59436272192376</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="H45" t="n">
-        <v>72.59436272192376</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="I45" t="n">
-        <v>34.20956155280007</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J45" t="n">
-        <v>173.0937728181741</v>
+        <v>48.26364783116925</v>
       </c>
       <c r="K45" t="n">
-        <v>275.2692694947593</v>
+        <v>354.8459124694471</v>
       </c>
       <c r="L45" t="n">
-        <v>458.979375171041</v>
+        <v>538.5560181457288</v>
       </c>
       <c r="M45" t="n">
-        <v>877.0591154046276</v>
+        <v>772.2939145963271</v>
       </c>
       <c r="N45" t="n">
-        <v>1300.402439620528</v>
+        <v>1026.626802572902</v>
       </c>
       <c r="O45" t="n">
-        <v>1510.847548957583</v>
+        <v>1237.071911909957</v>
       </c>
       <c r="P45" t="n">
-        <v>1660.415236125861</v>
+        <v>1660.415236125857</v>
       </c>
       <c r="Q45" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="R45" t="n">
-        <v>1710.478077640003</v>
+        <v>1702.927185746513</v>
       </c>
       <c r="S45" t="n">
-        <v>1565.068286780953</v>
+        <v>1702.927185746513</v>
       </c>
       <c r="T45" t="n">
-        <v>1368.959364357279</v>
+        <v>1702.927185746513</v>
       </c>
       <c r="U45" t="n">
-        <v>1140.834946401898</v>
+        <v>1696.982048652091</v>
       </c>
       <c r="V45" t="n">
-        <v>905.6828381701557</v>
+        <v>1501.433506192505</v>
       </c>
       <c r="W45" t="n">
-        <v>873.6247623029135</v>
+        <v>1247.196149464304</v>
       </c>
       <c r="X45" t="n">
-        <v>873.6247623029135</v>
+        <v>1039.344649258771</v>
       </c>
       <c r="Y45" t="n">
-        <v>665.8644635379596</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>136.8610143570683</v>
+        <v>620.3636903922787</v>
       </c>
       <c r="C46" t="n">
-        <v>136.8610143570683</v>
+        <v>451.4275074643718</v>
       </c>
       <c r="D46" t="n">
-        <v>136.8610143570683</v>
+        <v>301.3108680520361</v>
       </c>
       <c r="E46" t="n">
-        <v>136.8610143570683</v>
+        <v>153.397774469643</v>
       </c>
       <c r="F46" t="n">
-        <v>136.8610143570683</v>
+        <v>153.397774469643</v>
       </c>
       <c r="G46" t="n">
-        <v>136.8610143570683</v>
+        <v>39.13803200437192</v>
       </c>
       <c r="H46" t="n">
-        <v>39.138032004372</v>
+        <v>39.13803200437192</v>
       </c>
       <c r="I46" t="n">
-        <v>39.138032004372</v>
+        <v>39.13803200437192</v>
       </c>
       <c r="J46" t="n">
-        <v>34.20956155280007</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1085772674292</v>
+        <v>156.1085772674291</v>
       </c>
       <c r="L46" t="n">
-        <v>367.6237836228987</v>
+        <v>367.6237836228986</v>
       </c>
       <c r="M46" t="n">
-        <v>601.0260351989637</v>
+        <v>601.0260351989635</v>
       </c>
       <c r="N46" t="n">
-        <v>834.3131193340861</v>
+        <v>834.313119334086</v>
       </c>
       <c r="O46" t="n">
         <v>1033.775204627107</v>
@@ -7834,22 +7834,22 @@
         <v>1199.375232412101</v>
       </c>
       <c r="T46" t="n">
-        <v>1196.707710199243</v>
+        <v>1196.707710199244</v>
       </c>
       <c r="U46" t="n">
-        <v>907.5655217805038</v>
+        <v>1129.744802641464</v>
       </c>
       <c r="V46" t="n">
-        <v>652.8810335746169</v>
+        <v>1097.239595296537</v>
       </c>
       <c r="W46" t="n">
-        <v>363.4638635376563</v>
+        <v>1030.001706120536</v>
       </c>
       <c r="X46" t="n">
-        <v>357.6535935005984</v>
+        <v>802.0121552225185</v>
       </c>
       <c r="Y46" t="n">
-        <v>136.8610143570683</v>
+        <v>802.0121552225185</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>201.7639107259805</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,10 +8778,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>99.68798649800686</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>102.0759242279745</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>120.4910082414178</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>75.6728753855723</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.27290248456279</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9252,13 +9252,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>75.67287538557161</v>
       </c>
       <c r="O18" t="n">
-        <v>144.0190760328759</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>57.74483469310499</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.33000427628929</v>
+        <v>40.33000427628932</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>201.7639107259807</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>201.7639107259815</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>97.42904365676884</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,19 +9884,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>7.878667582189493</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>40.33000427628932</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,16 +9957,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>79.65754533222872</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>56.63557135895854</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,16 +10121,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>207.5241857375802</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>194.1958180761679</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>79.65754533222872</v>
       </c>
       <c r="N30" t="n">
-        <v>130.3490300358451</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>171.8431016220152</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>203.1114547168989</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>40.33000427628932</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,10 +10431,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>303.2555955256252</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>79.65754533222872</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10589,16 +10589,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>87.7909962087482</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>168.0712077810175</v>
       </c>
       <c r="N35" t="n">
-        <v>159.2110322455845</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>122.0375873408782</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.33000427628932</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>80.38044744918014</v>
       </c>
       <c r="L36" t="n">
-        <v>3.498591402040745</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>215.0487018978244</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>276.5410475228505</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>112.1520044143891</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>112.1520044143851</v>
       </c>
       <c r="R38" t="n">
         <v>40.33000427628932</v>
@@ -10902,10 +10902,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>240.9587742118182</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>242.0537561006255</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>272.9352425765903</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>113.1774118054407</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>168.0712077810173</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>68.93362892655736</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>40.33000427628932</v>
@@ -11139,13 +11139,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>14.95084868322546</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>191.5206341063663</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>276.5410475228514</v>
+        <v>272.9352425765894</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11306,16 +11306,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>159.2110322455843</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>122.0375873408778</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>112.1520044143844</v>
       </c>
       <c r="R44" t="n">
         <v>40.33000427628932</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>206.4714827895885</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>186.2038826090791</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>170.7176123629551</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>276.5410475228504</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>254.9455259660928</v>
       </c>
       <c r="C11" t="n">
-        <v>237.4845760736196</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>223.582275439452</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>254.142054374874</v>
       </c>
       <c r="F11" t="n">
-        <v>279.0877300443235</v>
+        <v>5.113426354538212</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>284.7244505358283</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1136930274265</v>
+        <v>183.1136930274267</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.65528330212878</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014313</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>199.963942772747</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.9427849810813</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.4496229586657</v>
+        <v>258.4496229586658</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.9455259660926</v>
+        <v>254.9455259660929</v>
       </c>
       <c r="C14" t="n">
-        <v>237.4845760736196</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>226.8947259232953</v>
       </c>
       <c r="E14" t="n">
-        <v>254.1420543748739</v>
+        <v>254.1420543748741</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>284.7244505358284</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1136930274265</v>
+        <v>37.67700123550301</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>17.65528330212899</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>83.09443458014334</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078951</v>
+        <v>123.3341395078953</v>
       </c>
       <c r="V14" t="n">
-        <v>199.963942772747</v>
+        <v>199.9639427727472</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200251</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.994973455825781</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-2.376881533027373e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-8.952838470577262e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1314328.034515368</v>
+        <v>1314328.034515369</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1314328.034515368</v>
+        <v>1314328.034515369</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1415690.156135341</v>
+        <v>1415690.15613534</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1415690.156135341</v>
+        <v>1415690.15613534</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1415690.156135341</v>
+        <v>1415690.15613534</v>
       </c>
     </row>
     <row r="13">
@@ -26314,7 +26314,7 @@
         <v>143373.3592754817</v>
       </c>
       <c r="C2" t="n">
-        <v>143373.3592754818</v>
+        <v>143373.3592754817</v>
       </c>
       <c r="D2" t="n">
         <v>143373.3592754817</v>
@@ -26329,31 +26329,31 @@
         <v>143682.3097262497</v>
       </c>
       <c r="H2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="I2" t="n">
         <v>143682.3097262497</v>
       </c>
-      <c r="I2" t="n">
-        <v>143682.3097262496</v>
-      </c>
       <c r="J2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="P2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="P2" t="n">
-        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224331</v>
+        <v>766266.535122433</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.1226877489</v>
+        <v>92112.12268774911</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111884.0815365103</v>
+        <v>111884.0815365101</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.1226877489</v>
+        <v>92112.1226877491</v>
       </c>
       <c r="M3" t="n">
-        <v>83853.8677541308</v>
+        <v>83853.86775413092</v>
       </c>
       <c r="N3" t="n">
-        <v>1.364242052659392e-10</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>161029.3996972914</v>
+        <v>161029.3996972913</v>
       </c>
       <c r="F4" t="n">
-        <v>161029.3996972914</v>
+        <v>161029.3996972913</v>
       </c>
       <c r="G4" t="n">
+        <v>228380.8004634458</v>
+      </c>
+      <c r="H4" t="n">
+        <v>228380.8004634458</v>
+      </c>
+      <c r="I4" t="n">
         <v>228380.8004634457</v>
-      </c>
-      <c r="H4" t="n">
-        <v>228380.8004634457</v>
-      </c>
-      <c r="I4" t="n">
-        <v>228380.8004634458</v>
       </c>
       <c r="J4" t="n">
         <v>226936.623553281</v>
@@ -26479,37 +26479,37 @@
         <v>47553.01820892901</v>
       </c>
       <c r="F5" t="n">
-        <v>47553.01820892902</v>
+        <v>47553.018208929</v>
       </c>
       <c r="G5" t="n">
         <v>57232.73576172447</v>
       </c>
       <c r="H5" t="n">
-        <v>57232.73576172449</v>
+        <v>57232.73576172447</v>
       </c>
       <c r="I5" t="n">
-        <v>57232.73576172449</v>
+        <v>57232.73576172447</v>
       </c>
       <c r="J5" t="n">
-        <v>72488.96662948883</v>
+        <v>72488.96662948879</v>
       </c>
       <c r="K5" t="n">
-        <v>72488.96662948883</v>
+        <v>72488.96662948879</v>
       </c>
       <c r="L5" t="n">
-        <v>72488.96662948883</v>
+        <v>72488.96662948879</v>
       </c>
       <c r="M5" t="n">
-        <v>59620.18961222716</v>
+        <v>59620.18961222713</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222718</v>
+        <v>59620.18961222714</v>
       </c>
       <c r="O5" t="n">
-        <v>59620.18961222717</v>
+        <v>59620.18961222712</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.18961222717</v>
+        <v>59620.18961222713</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-353404.971826628</v>
+        <v>-353409.3854044962</v>
       </c>
       <c r="C6" t="n">
-        <v>-353404.971826628</v>
+        <v>-353409.3854044962</v>
       </c>
       <c r="D6" t="n">
-        <v>-353404.971826628</v>
+        <v>-353409.3854044962</v>
       </c>
       <c r="E6" t="n">
-        <v>-851816.914908109</v>
+        <v>-852111.9187881901</v>
       </c>
       <c r="F6" t="n">
-        <v>-85550.3797856759</v>
+        <v>-85845.38366575725</v>
       </c>
       <c r="G6" t="n">
-        <v>-234043.3491866694</v>
+        <v>-234043.3491866697</v>
       </c>
       <c r="H6" t="n">
-        <v>-141931.2264989205</v>
+        <v>-141931.2264989206</v>
       </c>
       <c r="I6" t="n">
         <v>-141931.2264989206</v>
       </c>
       <c r="J6" t="n">
-        <v>-267627.3619930305</v>
+        <v>-267627.3619930302</v>
       </c>
       <c r="K6" t="n">
-        <v>-155743.2804565202</v>
+        <v>-155743.2804565201</v>
       </c>
       <c r="L6" t="n">
         <v>-247855.4031442692</v>
       </c>
       <c r="M6" t="n">
-        <v>-227901.1783661277</v>
+        <v>-227901.1783661279</v>
       </c>
       <c r="N6" t="n">
-        <v>-144047.3106119972</v>
+        <v>-144047.310611997</v>
       </c>
       <c r="O6" t="n">
-        <v>-144047.3106119971</v>
+        <v>-144047.310611997</v>
       </c>
       <c r="P6" t="n">
         <v>-144047.310611997</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G2" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="H2" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="I2" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="J2" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="K2" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="M2" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
       <c r="N2" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="O2" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="P2" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="3">
@@ -26753,7 +26753,7 @@
         <v>694.0053563773449</v>
       </c>
       <c r="H3" t="n">
-        <v>694.005356377345</v>
+        <v>694.0053563773449</v>
       </c>
       <c r="I3" t="n">
         <v>694.0053563773449</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>356.5898935450526</v>
+      </c>
+      <c r="F4" t="n">
+        <v>356.5898935450526</v>
+      </c>
+      <c r="G4" t="n">
         <v>356.5898935450524</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>356.5898935450525</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>356.5898935450525</v>
       </c>
-      <c r="H4" t="n">
-        <v>356.5898935450526</v>
-      </c>
-      <c r="I4" t="n">
-        <v>356.5898935450526</v>
-      </c>
       <c r="J4" t="n">
-        <v>784.2094129550535</v>
+        <v>784.2094129550526</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550535</v>
+        <v>784.2094129550526</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550535</v>
+        <v>784.2094129550526</v>
       </c>
       <c r="M4" t="n">
-        <v>427.619519410001</v>
+        <v>427.61951941</v>
       </c>
       <c r="N4" t="n">
-        <v>427.619519410001</v>
+        <v>427.61951941</v>
       </c>
       <c r="O4" t="n">
-        <v>427.6195194100009</v>
+        <v>427.6195194099997</v>
       </c>
       <c r="P4" t="n">
-        <v>427.6195194100009</v>
+        <v>427.6195194099998</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="M2" t="n">
-        <v>104.8173346926635</v>
+        <v>104.8173346926636</v>
       </c>
       <c r="N2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450523</v>
+        <v>356.5898935450526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194100009</v>
+        <v>427.6195194100001</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>356.5898935450523</v>
+        <v>356.5898935450526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I11" t="n">
         <v>102.9155217242246</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="12">
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.7883156973879</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>127.7883156973879</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>127.7883156973879</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>127.7883156973879</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H12" t="n">
-        <v>76.80762378548846</v>
+        <v>97.8184650408086</v>
       </c>
       <c r="I12" t="n">
         <v>38.00095315743245</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.475382974551636</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U12" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V12" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W12" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>114.2528574166194</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="13">
@@ -28245,25 +28245,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.4259876766408</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I13" t="n">
         <v>117.8149057650245</v>
@@ -28293,28 +28293,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T13" t="n">
-        <v>127.7883156973879</v>
+        <v>105.6597438049106</v>
       </c>
       <c r="U13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I14" t="n">
         <v>102.9155217242246</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.7883156973879</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>127.7883156973879</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>127.7883156973879</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>114.2528574166189</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H15" t="n">
         <v>97.8184650408086</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T15" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V15" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W15" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y15" t="n">
-        <v>127.7883156973879</v>
+        <v>114.2528574166201</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F16" t="n">
-        <v>112.4259876766409</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H16" t="n">
-        <v>127.7883156973879</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J16" t="n">
-        <v>4.879185747056212</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28533,25 +28533,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973879</v>
+        <v>117.3051734236999</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="C17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="D17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="E17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="F17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="G17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="H17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="I17" t="n">
         <v>102.9155217242246</v>
@@ -28618,19 +28618,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="V17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="W17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="X17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="Y17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H18" t="n">
         <v>97.8184650408086</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.475382974551636</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.95569295046</v>
       </c>
       <c r="T18" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U18" t="n">
-        <v>192.0035026401002</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>242.928469057074</v>
+        <v>76.17302929822051</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28722,25 +28722,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1003325314225</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>4.879185747056212</v>
@@ -28773,19 +28773,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>222.598335043079</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>242.928469057074</v>
+        <v>191.4211980096939</v>
       </c>
       <c r="V19" t="n">
-        <v>221.1740425330328</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="W19" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="C20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="D20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="E20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="F20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="G20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="H20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="I20" t="n">
         <v>102.9155217242246</v>
@@ -28855,19 +28855,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="V20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="W20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="X20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="Y20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
     </row>
     <row r="21">
@@ -28880,25 +28880,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H21" t="n">
-        <v>97.81846504080859</v>
+        <v>97.8184650408086</v>
       </c>
       <c r="I21" t="n">
-        <v>38.00095315743244</v>
+        <v>38.00095315743245</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28934,13 +28934,13 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U21" t="n">
-        <v>107.5855075384084</v>
+        <v>84.65743181004899</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>242.928469057074</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28980,7 +28980,7 @@
         <v>117.8149057650245</v>
       </c>
       <c r="J22" t="n">
-        <v>4.879185747056198</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29013,13 +29013,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>20.52070755643547</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>242.928469057074</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>222.1036130875941</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="C23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="D23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="E23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="F23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="G23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="H23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="I23" t="n">
         <v>102.9155217242246</v>
@@ -29092,19 +29092,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="V23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="W23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="X23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570741</v>
       </c>
     </row>
     <row r="24">
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.599859876775696</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29126,13 +29126,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.8184650408086</v>
       </c>
       <c r="I24" t="n">
         <v>38.00095315743245</v>
@@ -29168,22 +29168,22 @@
         <v>143.95569295046</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>76.17302929822029</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29196,7 +29196,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29205,7 +29205,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.7394942895816</v>
@@ -29217,7 +29217,7 @@
         <v>117.8149057650245</v>
       </c>
       <c r="J25" t="n">
-        <v>4.879185747056212</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T25" t="n">
-        <v>222.598335043079</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>242.928469057074</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>144.7092602203461</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>242.928469057074</v>
+        <v>19.89698666005404</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I26" t="n">
         <v>102.9155217242246</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="27">
@@ -29430,31 +29430,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J28" t="n">
-        <v>4.879185747056212</v>
+        <v>48.22200778663839</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29472,34 +29472,34 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>43.34282203958588</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="S28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="C29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="E29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="F29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="G29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="I29" t="n">
         <v>102.9155217242246</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="V29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="W29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="X29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
     </row>
     <row r="30">
@@ -29667,28 +29667,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="J31" t="n">
         <v>4.879185747056212</v>
@@ -29697,10 +29697,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>43.34282203958151</v>
       </c>
       <c r="M31" t="n">
-        <v>43.34282203958551</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29715,28 +29715,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="W31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="X31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="C32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="D32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="E32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="F32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="G32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="I32" t="n">
         <v>102.9155217242246</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="U32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="V32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="W32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="X32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
     </row>
     <row r="33">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="D34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="J34" t="n">
         <v>4.879185747056212</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>43.34282203958148</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>43.34282203958549</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="S34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="W34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="X34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596864</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
       <c r="C35" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
       <c r="D35" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
       <c r="E35" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
       <c r="F35" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
       <c r="G35" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
       <c r="H35" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
       <c r="I35" t="n">
         <v>102.9155217242246</v>
@@ -30040,19 +30040,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U35" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V35" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W35" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X35" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
     </row>
     <row r="36">
@@ -30068,7 +30068,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>41.79771832362893</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H36" t="n">
         <v>97.8184650408086</v>
@@ -30119,16 +30119,16 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>39.20753011443415</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30141,31 +30141,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>151.1003325314225</v>
+        <v>21.69627660316795</v>
       </c>
       <c r="I37" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J37" t="n">
-        <v>4.879185747056212</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30195,19 +30195,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T37" t="n">
-        <v>5.043436576548487</v>
+        <v>219.95748805235</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V37" t="n">
-        <v>219.9574880523496</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X37" t="n">
-        <v>219.9574880523496</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I38" t="n">
         <v>102.9155217242246</v>
@@ -30277,19 +30277,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="39">
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>97.8184650408086</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>38.00095315743245</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,22 +30350,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.95569295046</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>39.20753011443415</v>
       </c>
       <c r="W39" t="n">
-        <v>219.9574880523498</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>76.07032678357652</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30387,10 +30387,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>117.8149057650245</v>
       </c>
       <c r="J40" t="n">
-        <v>4.879185747056212</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.9574880523498</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>219.9574880523498</v>
+        <v>134.5122787910998</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X40" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.0120786305067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I41" t="n">
         <v>102.9155217242246</v>
@@ -30514,19 +30514,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="42">
@@ -30545,10 +30545,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>77.20848327186748</v>
       </c>
       <c r="G42" t="n">
         <v>135.850750924965</v>
@@ -30584,22 +30584,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.475382974551636</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>143.95569295046</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V42" t="n">
-        <v>106.2358530413479</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>219.9574880523498</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30621,25 +30621,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.879185747056212</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S43" t="n">
         <v>202.20662642754</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>120.8798342877766</v>
       </c>
       <c r="U43" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V43" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W43" t="n">
-        <v>95.96102605143392</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X43" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I44" t="n">
         <v>102.9155217242246</v>
@@ -30751,19 +30751,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="45">
@@ -30776,10 +30776,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>29.35514225541543</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>97.8184650408086</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>38.00095315743245</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,25 +30821,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.475382974551636</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.95569295046</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>39.20753011443483</v>
       </c>
       <c r="W45" t="n">
-        <v>219.9574880523498</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7394942895816</v>
+        <v>53.62234924896326</v>
       </c>
       <c r="H46" t="n">
-        <v>54.35458000225314</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I46" t="n">
         <v>117.8149057650245</v>
@@ -30906,22 +30906,22 @@
         <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X46" t="n">
-        <v>219.9574880523498</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -32464,19 +32464,19 @@
         <v>2.789971281918973</v>
       </c>
       <c r="H20" t="n">
-        <v>28.57279339095269</v>
+        <v>28.57279339095268</v>
       </c>
       <c r="I20" t="n">
         <v>107.5603678461813</v>
       </c>
       <c r="J20" t="n">
-        <v>236.7953250887707</v>
+        <v>236.7953250887706</v>
       </c>
       <c r="K20" t="n">
         <v>354.8948094524008</v>
       </c>
       <c r="L20" t="n">
-        <v>440.2783930714287</v>
+        <v>440.2783930714286</v>
       </c>
       <c r="M20" t="n">
         <v>489.8945448562552</v>
@@ -32485,19 +32485,19 @@
         <v>497.8215507610075</v>
       </c>
       <c r="O20" t="n">
-        <v>470.0787738264257</v>
+        <v>470.0787738264256</v>
       </c>
       <c r="P20" t="n">
-        <v>401.201357804051</v>
+        <v>401.2013578040509</v>
       </c>
       <c r="Q20" t="n">
-        <v>301.2855112703277</v>
+        <v>301.2855112703276</v>
       </c>
       <c r="R20" t="n">
         <v>175.2555335378428</v>
       </c>
       <c r="S20" t="n">
-        <v>63.57647058672866</v>
+        <v>63.57647058672865</v>
       </c>
       <c r="T20" t="n">
         <v>12.21309928660031</v>
@@ -32546,10 +32546,10 @@
         <v>14.41697919568787</v>
       </c>
       <c r="I21" t="n">
-        <v>51.39567969398264</v>
+        <v>51.39567969398263</v>
       </c>
       <c r="J21" t="n">
-        <v>141.0336734124943</v>
+        <v>141.0336734124942</v>
       </c>
       <c r="K21" t="n">
         <v>241.0490113749501</v>
@@ -32558,13 +32558,13 @@
         <v>324.1201430892497</v>
       </c>
       <c r="M21" t="n">
-        <v>378.232919225653</v>
+        <v>378.2329192256529</v>
       </c>
       <c r="N21" t="n">
-        <v>388.2436191303791</v>
+        <v>388.243619130379</v>
       </c>
       <c r="O21" t="n">
-        <v>355.1670619566211</v>
+        <v>355.167061956621</v>
       </c>
       <c r="P21" t="n">
         <v>285.0528793014797</v>
@@ -32573,16 +32573,16 @@
         <v>190.5503008679835</v>
       </c>
       <c r="R21" t="n">
-        <v>92.68245117809151</v>
+        <v>92.6824511780915</v>
       </c>
       <c r="S21" t="n">
         <v>27.72747815337787</v>
       </c>
       <c r="T21" t="n">
-        <v>6.016895495384715</v>
+        <v>6.016895495384714</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09820830514773755</v>
+        <v>0.09820830514773753</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>11.12683997601711</v>
       </c>
       <c r="I22" t="n">
-        <v>37.63556916223374</v>
+        <v>37.63556916223373</v>
       </c>
       <c r="J22" t="n">
-        <v>88.47999436961658</v>
+        <v>88.47999436961656</v>
       </c>
       <c r="K22" t="n">
         <v>145.3998107295486</v>
@@ -32637,10 +32637,10 @@
         <v>186.0616983310672</v>
       </c>
       <c r="M22" t="n">
-        <v>196.1759731149928</v>
+        <v>196.1759731149927</v>
       </c>
       <c r="N22" t="n">
-        <v>191.511346949178</v>
+        <v>191.5113469491779</v>
       </c>
       <c r="O22" t="n">
         <v>176.8917259172945</v>
@@ -32652,16 +32652,16 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R22" t="n">
-        <v>56.27131955151389</v>
+        <v>56.27131955151388</v>
       </c>
       <c r="S22" t="n">
         <v>21.80997160943229</v>
       </c>
       <c r="T22" t="n">
-        <v>5.347254385202493</v>
+        <v>5.347254385202492</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06826282193875532</v>
+        <v>0.06826282193875531</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>14.19604674582754</v>
       </c>
       <c r="K12" t="n">
-        <v>304.9714831265716</v>
+        <v>103.2075724005911</v>
       </c>
       <c r="L12" t="n">
         <v>185.5657633093755</v>
@@ -35498,10 +35498,10 @@
         <v>236.0988853036346</v>
       </c>
       <c r="N12" t="n">
-        <v>256.9019070470457</v>
+        <v>356.5898935450526</v>
       </c>
       <c r="O12" t="n">
-        <v>212.5708175121766</v>
+        <v>314.6467417401511</v>
       </c>
       <c r="P12" t="n">
         <v>151.0784718871494</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.19604674582754</v>
+        <v>140.2870820862364</v>
       </c>
       <c r="K15" t="n">
         <v>103.2075724005911</v>
@@ -35732,10 +35732,10 @@
         <v>185.5657633093755</v>
       </c>
       <c r="M15" t="n">
-        <v>356.5898935450525</v>
+        <v>236.0988853036346</v>
       </c>
       <c r="N15" t="n">
-        <v>256.9019070470457</v>
+        <v>332.574782432618</v>
       </c>
       <c r="O15" t="n">
         <v>212.5708175121766</v>
@@ -35744,7 +35744,7 @@
         <v>151.0784718871494</v>
       </c>
       <c r="Q15" t="n">
-        <v>131.8414292665248</v>
+        <v>50.56852678196196</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.74942056208431</v>
+        <v>55.74942056208415</v>
       </c>
       <c r="K17" t="n">
         <v>134.8049584074202</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.19604674582754</v>
+        <v>140.2870820862364</v>
       </c>
       <c r="K18" t="n">
         <v>103.2075724005911</v>
@@ -35972,13 +35972,13 @@
         <v>236.0988853036346</v>
       </c>
       <c r="N18" t="n">
-        <v>256.9019070470457</v>
+        <v>332.5747824326173</v>
       </c>
       <c r="O18" t="n">
-        <v>356.5898935450525</v>
+        <v>212.5708175121766</v>
       </c>
       <c r="P18" t="n">
-        <v>208.8233065802544</v>
+        <v>151.0784718871494</v>
       </c>
       <c r="Q18" t="n">
         <v>50.56852678196196</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.74942056208437</v>
+        <v>55.74942056208431</v>
       </c>
       <c r="K20" t="n">
-        <v>134.8049584074203</v>
+        <v>134.8049584074202</v>
       </c>
       <c r="L20" t="n">
-        <v>204.5119781014415</v>
+        <v>204.5119781014414</v>
       </c>
       <c r="M20" t="n">
         <v>259.5483116289824</v>
@@ -36133,13 +36133,13 @@
         <v>268.4084871644166</v>
       </c>
       <c r="O20" t="n">
-        <v>239.980562404739</v>
+        <v>239.9805624047389</v>
       </c>
       <c r="P20" t="n">
         <v>169.9683620487814</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.97982139587819</v>
+        <v>78.97982139587813</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.19604674582757</v>
+        <v>14.19604674582754</v>
       </c>
       <c r="K21" t="n">
         <v>103.2075724005911</v>
@@ -36206,16 +36206,16 @@
         <v>185.5657633093755</v>
       </c>
       <c r="M21" t="n">
-        <v>236.0988853036347</v>
+        <v>236.0988853036346</v>
       </c>
       <c r="N21" t="n">
-        <v>256.9019070470458</v>
+        <v>256.9019070470457</v>
       </c>
       <c r="O21" t="n">
         <v>212.5708175121766</v>
       </c>
       <c r="P21" t="n">
-        <v>151.0784718871495</v>
+        <v>151.0784718871494</v>
       </c>
       <c r="Q21" t="n">
         <v>252.3324375079428</v>
@@ -36288,16 +36288,16 @@
         <v>235.7598500768333</v>
       </c>
       <c r="N22" t="n">
-        <v>235.6435193284066</v>
+        <v>235.6435193284065</v>
       </c>
       <c r="O22" t="n">
-        <v>201.4768538313342</v>
+        <v>201.4768538313341</v>
       </c>
       <c r="P22" t="n">
-        <v>148.6399897770934</v>
+        <v>148.6399897770933</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.63276556128471</v>
+        <v>18.6327655612847</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>55.74942056208431</v>
       </c>
       <c r="K23" t="n">
-        <v>134.8049584074209</v>
+        <v>134.8049584074202</v>
       </c>
       <c r="L23" t="n">
         <v>204.5119781014414</v>
@@ -36437,7 +36437,7 @@
         <v>14.19604674582754</v>
       </c>
       <c r="K24" t="n">
-        <v>103.2075724005911</v>
+        <v>304.9714831265718</v>
       </c>
       <c r="L24" t="n">
         <v>185.5657633093755</v>
@@ -36452,7 +36452,7 @@
         <v>212.5708175121766</v>
       </c>
       <c r="P24" t="n">
-        <v>352.8423826131309</v>
+        <v>151.0784718871494</v>
       </c>
       <c r="Q24" t="n">
         <v>50.56852678196196</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.8460357341581</v>
+        <v>55.74942056208431</v>
       </c>
       <c r="K26" t="n">
-        <v>232.234002064189</v>
+        <v>134.8049584074202</v>
       </c>
       <c r="L26" t="n">
         <v>622.1731926518919</v>
@@ -36604,19 +36604,19 @@
         <v>709.0618451218149</v>
       </c>
       <c r="N26" t="n">
-        <v>268.4084871644166</v>
+        <v>705.7554115764008</v>
       </c>
       <c r="O26" t="n">
-        <v>239.9805624047389</v>
+        <v>620.7807436674842</v>
       </c>
       <c r="P26" t="n">
-        <v>491.767070220264</v>
+        <v>169.9683620487814</v>
       </c>
       <c r="Q26" t="n">
-        <v>291.2948120557828</v>
+        <v>86.85848897806763</v>
       </c>
       <c r="R26" t="n">
-        <v>25.38641559669313</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>367.6728094131697</v>
       </c>
       <c r="L27" t="n">
-        <v>556.4061086128347</v>
+        <v>185.5657633093755</v>
       </c>
       <c r="M27" t="n">
-        <v>315.7564306358634</v>
+        <v>236.0988853036346</v>
       </c>
       <c r="N27" t="n">
-        <v>256.9019070470457</v>
+        <v>313.5374784060043</v>
       </c>
       <c r="O27" t="n">
-        <v>212.5708175121766</v>
+        <v>606.433136788906</v>
       </c>
       <c r="P27" t="n">
         <v>469.5412405270866</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>43.34282203958217</v>
       </c>
       <c r="K28" t="n">
         <v>123.1303189036658</v>
@@ -36768,7 +36768,7 @@
         <v>201.4768538313341</v>
       </c>
       <c r="P28" t="n">
-        <v>191.9828118166792</v>
+        <v>148.6399897770933</v>
       </c>
       <c r="Q28" t="n">
         <v>18.6327655612847</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.74942056208431</v>
+        <v>224.8460357341581</v>
       </c>
       <c r="K29" t="n">
         <v>134.8049584074202</v>
@@ -36841,16 +36841,16 @@
         <v>709.0618451218149</v>
       </c>
       <c r="N29" t="n">
-        <v>268.4084871644166</v>
+        <v>705.7554115764008</v>
       </c>
       <c r="O29" t="n">
-        <v>620.7807436674842</v>
+        <v>239.9805624047389</v>
       </c>
       <c r="P29" t="n">
-        <v>377.4925477863616</v>
+        <v>169.9683620487814</v>
       </c>
       <c r="Q29" t="n">
-        <v>291.2948120557828</v>
+        <v>273.175639472046</v>
       </c>
       <c r="R29" t="n">
         <v>25.38641559669313</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.19604674582754</v>
+        <v>140.2870820862364</v>
       </c>
       <c r="K30" t="n">
         <v>367.6728094131697</v>
@@ -36917,16 +36917,16 @@
         <v>556.4061086128347</v>
       </c>
       <c r="M30" t="n">
-        <v>236.0988853036346</v>
+        <v>315.7564306358634</v>
       </c>
       <c r="N30" t="n">
-        <v>387.2509370828909</v>
+        <v>256.9019070470457</v>
       </c>
       <c r="O30" t="n">
-        <v>606.433136788906</v>
+        <v>212.5708175121766</v>
       </c>
       <c r="P30" t="n">
-        <v>151.0784718871494</v>
+        <v>469.5412405270866</v>
       </c>
       <c r="Q30" t="n">
         <v>260.6458145178111</v>
@@ -36993,10 +36993,10 @@
         <v>123.1303189036658</v>
       </c>
       <c r="L31" t="n">
-        <v>213.6517235913834</v>
+        <v>256.9945456309649</v>
       </c>
       <c r="M31" t="n">
-        <v>279.1026721164188</v>
+        <v>235.7598500768333</v>
       </c>
       <c r="N31" t="n">
         <v>235.6435193284065</v>
@@ -37069,10 +37069,10 @@
         <v>224.8460357341581</v>
       </c>
       <c r="K32" t="n">
-        <v>306.6480600294354</v>
+        <v>458.9503709785849</v>
       </c>
       <c r="L32" t="n">
-        <v>204.5119781014414</v>
+        <v>407.6234328183403</v>
       </c>
       <c r="M32" t="n">
         <v>259.5483116289824</v>
@@ -37081,7 +37081,7 @@
         <v>705.7554115764008</v>
       </c>
       <c r="O32" t="n">
-        <v>620.7807436674842</v>
+        <v>239.9805624047389</v>
       </c>
       <c r="P32" t="n">
         <v>491.767070220264</v>
@@ -37090,7 +37090,7 @@
         <v>291.2948120557828</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>25.38641559669313</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>367.6728094131697</v>
       </c>
       <c r="L33" t="n">
-        <v>488.8213588350006</v>
+        <v>556.4061086128347</v>
       </c>
       <c r="M33" t="n">
-        <v>701.8039490536346</v>
+        <v>315.7564306358634</v>
       </c>
       <c r="N33" t="n">
         <v>256.9019070470457</v>
@@ -37163,7 +37163,7 @@
         <v>212.5708175121766</v>
       </c>
       <c r="P33" t="n">
-        <v>151.0784718871494</v>
+        <v>469.5412405270866</v>
       </c>
       <c r="Q33" t="n">
         <v>260.6458145178111</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>123.1303189036658</v>
+        <v>166.4731409432472</v>
       </c>
       <c r="L34" t="n">
         <v>213.6517235913834</v>
@@ -37239,7 +37239,7 @@
         <v>235.6435193284065</v>
       </c>
       <c r="O34" t="n">
-        <v>244.8196758709196</v>
+        <v>201.4768538313341</v>
       </c>
       <c r="P34" t="n">
         <v>148.6399897770933</v>
@@ -37309,16 +37309,16 @@
         <v>134.8049584074202</v>
       </c>
       <c r="L35" t="n">
-        <v>204.5119781014414</v>
+        <v>292.3029743101896</v>
       </c>
       <c r="M35" t="n">
-        <v>259.5483116289824</v>
+        <v>427.61951941</v>
       </c>
       <c r="N35" t="n">
-        <v>427.619519410001</v>
+        <v>268.4084871644166</v>
       </c>
       <c r="O35" t="n">
-        <v>362.0181497456171</v>
+        <v>239.9805624047389</v>
       </c>
       <c r="P35" t="n">
         <v>169.9683620487814</v>
@@ -37327,7 +37327,7 @@
         <v>78.97982139587813</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>25.38641559669313</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14.19604674582754</v>
+        <v>140.2870820862364</v>
       </c>
       <c r="K36" t="n">
-        <v>367.6728094131697</v>
+        <v>183.5880198497712</v>
       </c>
       <c r="L36" t="n">
-        <v>189.0643547114162</v>
+        <v>185.5657633093755</v>
       </c>
       <c r="M36" t="n">
         <v>236.0988853036346</v>
@@ -37397,10 +37397,10 @@
         <v>256.9019070470457</v>
       </c>
       <c r="O36" t="n">
-        <v>427.619519410001</v>
+        <v>212.5708175121766</v>
       </c>
       <c r="P36" t="n">
-        <v>151.0784718871494</v>
+        <v>427.61951941</v>
       </c>
       <c r="Q36" t="n">
         <v>50.56852678196196</v>
@@ -37543,7 +37543,7 @@
         <v>224.8460357341581</v>
       </c>
       <c r="K38" t="n">
-        <v>246.9569628218093</v>
+        <v>134.8049584074202</v>
       </c>
       <c r="L38" t="n">
         <v>204.5119781014414</v>
@@ -37561,7 +37561,7 @@
         <v>169.9683620487814</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.97982139587813</v>
+        <v>191.1318258102632</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>14.19604674582754</v>
       </c>
       <c r="K39" t="n">
-        <v>344.1663466124093</v>
+        <v>103.2075724005911</v>
       </c>
       <c r="L39" t="n">
-        <v>427.619519410001</v>
+        <v>185.5657633093755</v>
       </c>
       <c r="M39" t="n">
         <v>236.0988853036346</v>
@@ -37637,10 +37637,10 @@
         <v>212.5708175121766</v>
       </c>
       <c r="P39" t="n">
-        <v>151.0784718871494</v>
+        <v>424.0137144637397</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.56852678196196</v>
+        <v>260.6458145178111</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.74942056208431</v>
+        <v>168.926832367525</v>
       </c>
       <c r="K41" t="n">
         <v>134.8049584074202</v>
@@ -37786,7 +37786,7 @@
         <v>204.5119781014414</v>
       </c>
       <c r="M41" t="n">
-        <v>259.5483116289824</v>
+        <v>427.6195194099997</v>
       </c>
       <c r="N41" t="n">
         <v>268.4084871644166</v>
@@ -37795,10 +37795,10 @@
         <v>239.9805624047389</v>
       </c>
       <c r="P41" t="n">
-        <v>238.9019909753387</v>
+        <v>169.9683620487814</v>
       </c>
       <c r="Q41" t="n">
-        <v>291.2948120557828</v>
+        <v>78.97982139587813</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>14.19604674582754</v>
       </c>
       <c r="K42" t="n">
-        <v>118.1584210838165</v>
+        <v>103.2075724005911</v>
       </c>
       <c r="L42" t="n">
         <v>185.5657633093755</v>
       </c>
       <c r="M42" t="n">
-        <v>427.6195194100009</v>
+        <v>236.0988853036346</v>
       </c>
       <c r="N42" t="n">
         <v>256.9019070470457</v>
@@ -37874,10 +37874,10 @@
         <v>212.5708175121766</v>
       </c>
       <c r="P42" t="n">
-        <v>427.6195194100009</v>
+        <v>424.0137144637388</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.56852678196196</v>
+        <v>260.6458145178111</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.74942056208431</v>
+        <v>224.8460357341581</v>
       </c>
       <c r="K44" t="n">
         <v>134.8049584074202</v>
@@ -38026,16 +38026,16 @@
         <v>259.5483116289824</v>
       </c>
       <c r="N44" t="n">
-        <v>427.6195194100009</v>
+        <v>268.4084871644166</v>
       </c>
       <c r="O44" t="n">
         <v>239.9805624047389</v>
       </c>
       <c r="P44" t="n">
-        <v>292.0059493896592</v>
+        <v>169.9683620487814</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.97982139587813</v>
+        <v>191.1318258102625</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>140.2870820862364</v>
+        <v>14.19604674582754</v>
       </c>
       <c r="K45" t="n">
-        <v>103.2075724005911</v>
+        <v>309.6790551901796</v>
       </c>
       <c r="L45" t="n">
         <v>185.5657633093755</v>
       </c>
       <c r="M45" t="n">
-        <v>422.3027679127138</v>
+        <v>236.0988853036346</v>
       </c>
       <c r="N45" t="n">
-        <v>427.6195194100009</v>
+        <v>256.9019070470457</v>
       </c>
       <c r="O45" t="n">
         <v>212.5708175121766</v>
       </c>
       <c r="P45" t="n">
-        <v>151.0784718871494</v>
+        <v>427.6195194099998</v>
       </c>
       <c r="Q45" t="n">
         <v>50.56852678196196</v>
